--- a/Martian/jre/lib/resource/excel-template/template1.xlsx
+++ b/Martian/jre/lib/resource/excel-template/template1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MS-Drive\OneDrive - UOU\WORK\Workspace\WORK\JAVA\java-workspace\CE-Air_Html_Converter\resource\excel-template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Java-workspace\Martian\jre\lib\resource\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C8FD47-851E-4EEA-A431-988DBE06BE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709B7427-0DF3-49C9-A36C-A6D345AD5613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Message" sheetId="12" r:id="rId1"/>
@@ -1038,296 +1038,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>لم</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>يتم</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>العثور</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>على</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>نتائج</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>بحث</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. &lt;br/&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>اضغط</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>على</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>زر</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &amp;#34;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>إغلاق</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&amp;#34; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>للانتقال</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>إلى</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>الصفحة</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>الرئيسية</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Няма намерени резултати от търсенето.&lt;br/&gt;Натиснете бутона „Затваряне“, за да преминете към главната страница.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1592,13 +1302,302 @@
   <si>
     <t>Video material</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>لم</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>يتم</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>العثور</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>على</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>نتائج</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>بحث</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. &lt;br/&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>اضغط</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>على</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>زر</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>إغلاق</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>للانتقال</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>إلى</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>الصفحة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>الرئيسية</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1712,6 +1711,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="178"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2768,9 +2775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -3281,30 +3288,30 @@
         <v>147</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3321,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0CC4FC-2E38-4980-8DFE-075CF928C970}">
   <dimension ref="B3:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3335,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>1</v>
@@ -3344,7 +3351,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>5</v>
@@ -3359,98 +3366,98 @@
         <v>8</v>
       </c>
       <c r="K3" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3482,16 +3489,16 @@
   <sheetData>
     <row r="3" spans="2:16" s="2" customFormat="1">
       <c r="B3" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>157</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>158</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>1</v>
@@ -3500,7 +3507,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>5</v>
@@ -3515,30 +3522,30 @@
         <v>8</v>
       </c>
       <c r="M3" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="O3" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="P3" s="23" t="s">
         <v>162</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="33">
       <c r="B4" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>190</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3554,16 +3561,16 @@
     </row>
     <row r="5" spans="2:16" ht="33">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>193</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3579,16 +3586,16 @@
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>196</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3604,16 +3611,16 @@
     </row>
     <row r="7" spans="2:16" ht="16.5" customHeight="1">
       <c r="B7" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>199</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -3629,16 +3636,16 @@
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>202</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3654,16 +3661,16 @@
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3679,16 +3686,16 @@
     </row>
     <row r="10" spans="2:16" ht="33">
       <c r="B10" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3704,16 +3711,16 @@
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3729,16 +3736,16 @@
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>212</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3754,16 +3761,16 @@
     </row>
     <row r="13" spans="2:16">
       <c r="B13" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>215</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3779,16 +3786,16 @@
     </row>
     <row r="14" spans="2:16" ht="16.5" customHeight="1">
       <c r="B14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3804,16 +3811,16 @@
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>220</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>

--- a/Martian/jre/lib/resource/excel-template/template1.xlsx
+++ b/Martian/jre/lib/resource/excel-template/template1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Java-workspace\Martian\jre\lib\resource\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709B7427-0DF3-49C9-A36C-A6D345AD5613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7F6789-879F-4462-9C41-257DB237BA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Message" sheetId="12" r:id="rId1"/>
     <sheet name="Video_Key" sheetId="19" r:id="rId2"/>
     <sheet name="Video_Link" sheetId="18" r:id="rId3"/>
+    <sheet name="Remote" sheetId="20" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="224">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1591,6 +1592,14 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>제품매뉴얼 바로가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리모컨 매뉴얼 바로가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1957,7 +1966,7 @@
     <cellStyle name="표준 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="하이퍼링크" xfId="16" builtinId="8"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="42">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2232,40 +2241,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2432,6 +2407,370 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2446,41 +2785,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="B3:J21" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="B3:J21" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="B3:J21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Key" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="EN" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="AR" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="BG" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="FR" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DE" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="IT" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PL" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ES" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Key" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="EN" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="AR" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="BG" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="FR" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DE" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="IT" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PL" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ES" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13367" displayName="Table13367" ref="C3:P13" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13367" displayName="Table13367" ref="C3:P13" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="C3:P13" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Key" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{05C2B4BA-00C8-45AC-AF2C-1EAD16AE68C9}" name="Link" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="KO" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="EN" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="FR" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="FR(AM)" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="DE" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="IT" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="PL" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ES" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="ES(AM)" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="TH" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="VI" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="TC" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Key" dataDxfId="39"/>
+    <tableColumn id="14" xr3:uid="{05C2B4BA-00C8-45AC-AF2C-1EAD16AE68C9}" name="Link" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="KO" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="EN" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="FR" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="FR(AM)" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="DE" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="IT" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="PL" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ES" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="ES(AM)" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="TH" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="VI" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="TC" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{90DB9FF8-285F-439C-BAC1-04DA78DA8E52}" name="Table133673" displayName="Table133673" ref="C3:O5" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="C3:O5" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{A1F6A4C1-F017-441F-BEEB-5A1D85C8A191}" name="Key" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{81FB1F49-2F74-47FB-8140-9580D98DA72A}" name="KO" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{FC2EA5F3-5F59-4D94-8DFE-0C19F7C84892}" name="EN" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{46CCC21F-8B8C-4D7A-ADCB-5B6A1EE23D25}" name="FR" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{ADF52DA2-B211-4864-BFCE-F91B0BA62FE6}" name="FR(AM)" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{55F6F001-51EE-41B1-884D-1A74E2C306C1}" name="DE" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{C42D0BB3-0E43-4823-8ECB-285A5A262DFA}" name="IT" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{DFC5FB8D-8D63-4230-BAB3-18B2A461F4F7}" name="PL" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{1349FB53-42B7-4C14-AF88-45430F7534BC}" name="ES" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{C2A7FE7F-AB77-41D4-9C01-8B7209502BDF}" name="ES(AM)" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{555B5701-1BF7-45DB-9604-0B6F705DFECA}" name="TH" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{B72E3DA5-F977-41EB-8B12-60152D5E5B97}" name="VI" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{0B7EAF29-D25B-49C3-BFDA-7481AB4FE288}" name="TC" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2775,9 +3136,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="F20" sqref="F20"/>
+      <selection pane="topRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -3329,7 +3690,7 @@
   <dimension ref="B3:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3856,4 +4217,122 @@
     <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D47F4AF-E624-409E-895A-B6D9FBD8B196}">
+  <dimension ref="B3:O5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.125" style="1" customWidth="1"/>
+    <col min="5" max="14" width="17.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" s="2" customFormat="1">
+      <c r="B3" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Martian/jre/lib/resource/excel-template/template1.xlsx
+++ b/Martian/jre/lib/resource/excel-template/template1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Java-workspace\Martian\jre\lib\resource\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7F6789-879F-4462-9C41-257DB237BA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BA896B-E9D9-4B2F-ACAF-F748734F6A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="226">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1599,6 +1599,14 @@
   </si>
   <si>
     <t>리모컨 매뉴얼 바로가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2298,6 +2306,370 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2407,370 +2779,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2785,41 +2793,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="B3:J21" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="B3:J21" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="B3:J21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Key" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="EN" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="AR" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="BG" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="FR" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DE" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="IT" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PL" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ES" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Key" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="EN" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="AR" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="BG" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="FR" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DE" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="IT" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PL" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ES" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13367" displayName="Table13367" ref="C3:P13" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13367" displayName="Table13367" ref="C3:P13" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="C3:P13" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Key" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{05C2B4BA-00C8-45AC-AF2C-1EAD16AE68C9}" name="Link" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="KO" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="EN" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="FR" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="FR(AM)" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="DE" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="IT" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="PL" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ES" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="ES(AM)" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="TH" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="VI" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="TC" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Key" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{05C2B4BA-00C8-45AC-AF2C-1EAD16AE68C9}" name="Link" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="KO" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="EN" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="FR" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="FR(AM)" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="DE" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="IT" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="PL" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ES" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="ES(AM)" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="TH" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="VI" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="TC" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4225,7 +4233,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+      <selection pane="topRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -4288,7 +4296,7 @@
         <v>163</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>222</v>
@@ -4310,7 +4318,7 @@
         <v>163</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>223</v>

--- a/Martian/jre/lib/resource/excel-template/template1.xlsx
+++ b/Martian/jre/lib/resource/excel-template/template1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Java-workspace\Martian\jre\lib\resource\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BA896B-E9D9-4B2F-ACAF-F748734F6A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618CED7E-3174-4E0F-84D9-8FCC9639358A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="3015" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Message" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="233">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1607,6 +1607,34 @@
   </si>
   <si>
     <t>Remote_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbbbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3839,9 +3867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="D18" sqref="D18"/>
+      <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -3916,7 +3944,9 @@
       <c r="E4" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -3941,7 +3971,9 @@
       <c r="E5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -3966,7 +3998,9 @@
       <c r="E6" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -3991,7 +4025,9 @@
       <c r="E7" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -4016,7 +4052,9 @@
       <c r="E8" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -4231,9 +4269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D47F4AF-E624-409E-895A-B6D9FBD8B196}">
   <dimension ref="B3:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="F13" sqref="F13"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -4301,7 +4339,9 @@
       <c r="D4" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4323,7 +4363,9 @@
       <c r="D5" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>

--- a/Martian/jre/lib/resource/excel-template/template1.xlsx
+++ b/Martian/jre/lib/resource/excel-template/template1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Java-workspace\Martian\jre\lib\resource\excel-template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618CED7E-3174-4E0F-84D9-8FCC9639358A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="3015" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="3015" windowWidth="21600" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="Message" sheetId="12" r:id="rId1"/>
@@ -18,28 +17,17 @@
     <sheet name="Video_Link" sheetId="18" r:id="rId3"/>
     <sheet name="Remote" sheetId="20" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="686">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,26 +70,6 @@
   </si>
   <si>
     <t>العربية</t>
-  </si>
-  <si>
-    <t>български</t>
-  </si>
-  <si>
-    <t>Français</t>
-  </si>
-  <si>
-    <t>Deutsch</t>
-  </si>
-  <si>
-    <t>Italiano</t>
-  </si>
-  <si>
-    <t>Polski</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Español</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>language_code</t>
@@ -149,24 +113,6 @@
     </r>
   </si>
   <si>
-    <t>Ръководство за потребителя</t>
-  </si>
-  <si>
-    <t>Manuel de l’utilisateur</t>
-  </si>
-  <si>
-    <t>Benutzerhandbuch</t>
-  </si>
-  <si>
-    <t>Manuale dell'utente</t>
-  </si>
-  <si>
-    <t>Instrukcja obsługi</t>
-  </si>
-  <si>
-    <t>Manual de usuario</t>
-  </si>
-  <si>
     <t>model_acr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,25 +147,6 @@
     </r>
   </si>
   <si>
-    <t>Пречиствател за въздух</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purificateur d'air</t>
-  </si>
-  <si>
-    <t>Luftreiniger</t>
-  </si>
-  <si>
-    <t>Purificatore d'aria</t>
-  </si>
-  <si>
-    <t>Oczyszczacz powietrza</t>
-  </si>
-  <si>
-    <t>Purificador de aire</t>
-  </si>
-  <si>
     <t>model_fac</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,25 +244,6 @@
     </r>
   </si>
   <si>
-    <t>Подов климатик</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Climatiseur au sol</t>
-  </si>
-  <si>
-    <t>Stand-Klimaanlage</t>
-  </si>
-  <si>
-    <t>Condizionatore a pavimento</t>
-  </si>
-  <si>
-    <t>Klimatyzator stojący</t>
-  </si>
-  <si>
-    <t>Aire acondicionado de montaje en suelo</t>
-  </si>
-  <si>
     <t>model_rac</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,25 +341,6 @@
     </r>
   </si>
   <si>
-    <t>Стенен климатик</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Climatiseur mural</t>
-  </si>
-  <si>
-    <t>Wandmontierte Klimaanlage</t>
-  </si>
-  <si>
-    <t>Condizionatore montato a parete</t>
-  </si>
-  <si>
-    <t>Klimatyzator do montażu ściennego</t>
-  </si>
-  <si>
-    <t>Aire acondicionado de montaje en pared</t>
-  </si>
-  <si>
     <t>model_wac</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,25 +375,6 @@
     </r>
   </si>
   <si>
-    <t>Подходящ за прозорец</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Montage sur fenêtre</t>
-  </si>
-  <si>
-    <t>Fenster-Installation</t>
-  </si>
-  <si>
-    <t>Adatta a finestra</t>
-  </si>
-  <si>
-    <t>Dopasowanie do okna</t>
-  </si>
-  <si>
-    <t>Ajuste a la ventana</t>
-  </si>
-  <si>
     <t>model_vcn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -539,25 +409,6 @@
     </r>
   </si>
   <si>
-    <t>Прахосмукачка</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aspirateur</t>
-  </si>
-  <si>
-    <t>Staubsauger</t>
-  </si>
-  <si>
-    <t>Aspirapolvere</t>
-  </si>
-  <si>
-    <t>Odkurzacz</t>
-  </si>
-  <si>
-    <t>Aspirador</t>
-  </si>
-  <si>
     <t>select_language</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -592,25 +443,6 @@
     </r>
   </si>
   <si>
-    <t>Избор на език</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sélectionner la langue</t>
-  </si>
-  <si>
-    <t>Sprache auswählen</t>
-  </si>
-  <si>
-    <t>Selezionare lingua</t>
-  </si>
-  <si>
-    <t>Wybierz język</t>
-  </si>
-  <si>
-    <t>Seleccionar idioma</t>
-  </si>
-  <si>
     <t>search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -620,25 +452,6 @@
   </si>
   <si>
     <t>بحث</t>
-  </si>
-  <si>
-    <t>Търсене</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rechercher</t>
-  </si>
-  <si>
-    <t>Suchen</t>
-  </si>
-  <si>
-    <t>Ricerca</t>
-  </si>
-  <si>
-    <t>Wyszukaj</t>
-  </si>
-  <si>
-    <t>Buscar</t>
   </si>
   <si>
     <t>keyword</t>
@@ -728,24 +541,6 @@
     </r>
   </si>
   <si>
-    <t>Въведете ключова дума за търсене.</t>
-  </si>
-  <si>
-    <t>Saisissez votre mot-clé de recherche.</t>
-  </si>
-  <si>
-    <t>Geben Sie Ihren Suchbegriff ein.</t>
-  </si>
-  <si>
-    <t>Digitare la parola chiave di ricerca.</t>
-  </si>
-  <si>
-    <t>Wprowadź wyszukiwane słowa kluczowe.</t>
-  </si>
-  <si>
-    <t>Introduzca la palabra clave de búsqueda.</t>
-  </si>
-  <si>
     <t>result_toc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -821,24 +616,6 @@
     </r>
   </si>
   <si>
-    <t>Търсене в съдържанието</t>
-  </si>
-  <si>
-    <t>Rechercher dans la table des matières</t>
-  </si>
-  <si>
-    <t>Inhaltsverzeichnis durchsuchen</t>
-  </si>
-  <si>
-    <t>Ricerca nel Sommario</t>
-  </si>
-  <si>
-    <t>Wyszukaj spis treści</t>
-  </si>
-  <si>
-    <t>Buscar en tabla de contenido</t>
-  </si>
-  <si>
     <t>search_short</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -926,24 +703,6 @@
     </r>
   </si>
   <si>
-    <t>Ключовата дума е твърде кратка.</t>
-  </si>
-  <si>
-    <t>Le mot-clé est trop court.</t>
-  </si>
-  <si>
-    <t>Suchbegriff ist zu kurz.</t>
-  </si>
-  <si>
-    <t>La parola chiave è troppo breve.</t>
-  </si>
-  <si>
-    <t>Słowo kluczowe jest za krótkie.</t>
-  </si>
-  <si>
-    <t>La palabra clave es demasiado corta.</t>
-  </si>
-  <si>
     <t>search_more</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -954,24 +713,6 @@
     <t>المزيد</t>
   </si>
   <si>
-    <t>Повече</t>
-  </si>
-  <si>
-    <t>Plus</t>
-  </si>
-  <si>
-    <t>Mehr</t>
-  </si>
-  <si>
-    <t>Altro</t>
-  </si>
-  <si>
-    <t>Więcej</t>
-  </si>
-  <si>
-    <t>Más</t>
-  </si>
-  <si>
     <t>search_less</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -983,25 +724,6 @@
     <t>إخفاء</t>
   </si>
   <si>
-    <t>Скриване</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Masquer</t>
-  </si>
-  <si>
-    <t>Ausblenden</t>
-  </si>
-  <si>
-    <t>Nascondi</t>
-  </si>
-  <si>
-    <t>Ukryj</t>
-  </si>
-  <si>
-    <t>Ocultar</t>
-  </si>
-  <si>
     <t>close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1013,49 +735,12 @@
     <t>مغلق</t>
   </si>
   <si>
-    <t>Затваряне</t>
-  </si>
-  <si>
-    <t>Fermer</t>
-  </si>
-  <si>
-    <t>Schließen</t>
-  </si>
-  <si>
-    <t>Chiusa</t>
-  </si>
-  <si>
-    <t>Zamknij</t>
-  </si>
-  <si>
-    <t>Cerrado</t>
-  </si>
-  <si>
     <t>find_err</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>No search results found.&lt;br/&gt;Press the Close button to go to the main page.</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Няма намерени резултати от търсенето.&lt;br/&gt;Натиснете бутона „Затваряне“, за да преминете към главната страница.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aucun résultat de recherche trouvé.&lt;br/&gt;Appuyez sur le bouton Fermer pour revenir à la page principale.</t>
-  </si>
-  <si>
-    <t>Keine Suchergebnisse gefunden.&lt;br/&gt;Drücken Sie die Schließen-Taste, um zur Hauptseite zurückzukehren.</t>
-  </si>
-  <si>
-    <t>La ricerca non ha prodotto risultati.&lt;br/&gt;Premere il pulsante di chiusura per passare alla pagina principale.</t>
-  </si>
-  <si>
-    <t>Nie znaleziono wyników wyszukiwania.&lt;br/&gt;Naciśnij przycisk Zamknij, aby przejść do strony głównej.</t>
-  </si>
-  <si>
-    <t>No se han encontrado resultados de búsqueda.&lt;br/&gt;Pulse el botón Cerrar para ir a la página principal.</t>
   </si>
   <si>
     <t>Link_Refer</t>
@@ -1636,13 +1321,2074 @@
   <si>
     <t>eee</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>한국어</t>
+  </si>
+  <si>
+    <t>사용 설명서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공기청정기</t>
+  </si>
+  <si>
+    <t>스탠드형 에어컨</t>
+  </si>
+  <si>
+    <t>벽걸이형 에어컨</t>
+  </si>
+  <si>
+    <t>창문형 에어컨</t>
+  </si>
+  <si>
+    <t>청소기</t>
+  </si>
+  <si>
+    <t>model_dhm</t>
+  </si>
+  <si>
+    <t>제습기</t>
+  </si>
+  <si>
+    <t>언어 선택</t>
+  </si>
+  <si>
+    <t>검색</t>
+  </si>
+  <si>
+    <t>검색할 키워드를 입력하세요.</t>
+  </si>
+  <si>
+    <t>목차 검색</t>
+  </si>
+  <si>
+    <t>검색어가 너무 짧습니다.</t>
+  </si>
+  <si>
+    <t>더보기</t>
+  </si>
+  <si>
+    <t>숨기기</t>
+  </si>
+  <si>
+    <t>닫기</t>
+  </si>
+  <si>
+    <t>검색 결과가 없습니다.&lt;br/&gt;닫기 버튼을 누르면 메인 페이지로 이동합니다.</t>
+  </si>
+  <si>
+    <t>부분</t>
+  </si>
+  <si>
+    <t>설치 안내서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Installation manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Installation_manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZH_CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZH_CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZH_TW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZH_HK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taiwan Chinese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hongkong Chinese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farsi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hebrew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canadian French</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazilian Portuguese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexican Spanish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentine Spanish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dutch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finnish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>French</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maltese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norwegian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portuguese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spanish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swedish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albanian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgarian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungarian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kazakh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latvian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuanian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macedonian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romanian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovenian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukrainian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzbek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>册</t>
+    </r>
+  </si>
+  <si>
+    <t>使用者手冊</t>
+  </si>
+  <si>
+    <t>Buku petunjuk pengguna</t>
+  </si>
+  <si>
+    <t>คู่มือผู้ใช้</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớng dẫn sử dụng</t>
+    </r>
+  </si>
+  <si>
+    <t>Хэрэглэгчийн гарын авлага</t>
+  </si>
+  <si>
+    <t>دفترچه راهنمای کاربر</t>
+  </si>
+  <si>
+    <t>מדריך למשתמש</t>
+  </si>
+  <si>
+    <t>Manuel utilisateur</t>
+  </si>
+  <si>
+    <t>Manual do usuário</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manual del usuario</t>
+  </si>
+  <si>
+    <t>Brugervejledning</t>
+  </si>
+  <si>
+    <t>Gebruikershandleiding</t>
+  </si>
+  <si>
+    <t>Käyttöopas</t>
+  </si>
+  <si>
+    <t>Manuel de l’utilisateur</t>
+  </si>
+  <si>
+    <t>Benutzerhandbuch</t>
+  </si>
+  <si>
+    <t>Εγχειρίδιο χρήσης</t>
+  </si>
+  <si>
+    <t>Notendahandbók</t>
+  </si>
+  <si>
+    <t>Manuale dell'utente</t>
+  </si>
+  <si>
+    <t>Brukermanual</t>
+  </si>
+  <si>
+    <t>Manual do utilizador</t>
+  </si>
+  <si>
+    <t>Manual de usuario</t>
+  </si>
+  <si>
+    <t>Bruksanvisning</t>
+  </si>
+  <si>
+    <t>Kullanıcı el kitabı</t>
+  </si>
+  <si>
+    <t>Manuali i përdorimit</t>
+  </si>
+  <si>
+    <t>Ръководство за потребителя</t>
+  </si>
+  <si>
+    <t>Korisnički priručnik</t>
+  </si>
+  <si>
+    <t>Návod k obsluze</t>
+  </si>
+  <si>
+    <t>Kasutusjuhend</t>
+  </si>
+  <si>
+    <t>Felhasználói kézikönyv</t>
+  </si>
+  <si>
+    <t>Пайдаланушы нұсқаулығы</t>
+  </si>
+  <si>
+    <t>Lietotāja rokasgrāmata</t>
+  </si>
+  <si>
+    <t>Naudotojo vadovas</t>
+  </si>
+  <si>
+    <t>Прирачник за корисникот</t>
+  </si>
+  <si>
+    <t>Instrukcja obsługi</t>
+  </si>
+  <si>
+    <t>Manual de utilizare</t>
+  </si>
+  <si>
+    <t>Руководство пользователя</t>
+  </si>
+  <si>
+    <t>Návod na používanie</t>
+  </si>
+  <si>
+    <t>Uporabniški priročnik</t>
+  </si>
+  <si>
+    <t>Посібник користувача</t>
+  </si>
+  <si>
+    <t>Foydalanuvchi qo‘llanmasi</t>
+  </si>
+  <si>
+    <r>
+      <t>安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>书</t>
+    </r>
+  </si>
+  <si>
+    <t>安裝手冊</t>
+  </si>
+  <si>
+    <t>Buku petunjuk instalasi</t>
+  </si>
+  <si>
+    <t>คู่มือการติดตั้ง</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớng dẫn lắp đặt</t>
+    </r>
+  </si>
+  <si>
+    <t>دليل التركيب</t>
+  </si>
+  <si>
+    <r>
+      <t>دفترچه</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>راهنما</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ی </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>نصب</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>מדריך</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>התקנה</t>
+    </r>
+  </si>
+  <si>
+    <t>Manuel d'installation</t>
+  </si>
+  <si>
+    <t>Manual de instalação</t>
+  </si>
+  <si>
+    <t>Manual de instalación</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manual de instalación</t>
+  </si>
+  <si>
+    <t>Installationsvejledning</t>
+  </si>
+  <si>
+    <t>Installatiehandleiding</t>
+  </si>
+  <si>
+    <t>Asennusohje</t>
+  </si>
+  <si>
+    <t>Installationshandbuch</t>
+  </si>
+  <si>
+    <t>Εγχειρίδιο εγκατάστασης</t>
+  </si>
+  <si>
+    <t>Manuale di installazione</t>
+  </si>
+  <si>
+    <t>Installasjonsmanual</t>
+  </si>
+  <si>
+    <t>Installationshandbok</t>
+  </si>
+  <si>
+    <t>Kurulum kılavuzu</t>
+  </si>
+  <si>
+    <t>Manuali i instalimit</t>
+  </si>
+  <si>
+    <t>Ръководство за монтаж</t>
+  </si>
+  <si>
+    <t>Priručnik za ugradnju</t>
+  </si>
+  <si>
+    <t>Instalační manuál</t>
+  </si>
+  <si>
+    <t>Paigaldusjuhend</t>
+  </si>
+  <si>
+    <t>Telepítési kézikönyv</t>
+  </si>
+  <si>
+    <t>Орнату нұсқаулығы</t>
+  </si>
+  <si>
+    <t>Uzstādīšanas rokasgrāmata</t>
+  </si>
+  <si>
+    <t>Montavimo vadovas</t>
+  </si>
+  <si>
+    <t>Прирачник за инсталација</t>
+  </si>
+  <si>
+    <t>Instrukcja instalacji</t>
+  </si>
+  <si>
+    <t>Manual de instalare</t>
+  </si>
+  <si>
+    <t>Руководство по установке</t>
+  </si>
+  <si>
+    <t>Postavljanje uređaja</t>
+  </si>
+  <si>
+    <t>Návod na inštaláciu</t>
+  </si>
+  <si>
+    <t>Navodila za namestitev</t>
+  </si>
+  <si>
+    <t>Посібник із монтажу</t>
+  </si>
+  <si>
+    <t>O‘rnatish qo‘llanmasi</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>空氣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>清</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>淨機</t>
+    </r>
+  </si>
+  <si>
+    <t>Pembersih udara</t>
+  </si>
+  <si>
+    <t>เครื่องฟอกอากาศ</t>
+  </si>
+  <si>
+    <t>Máy lọc không khí</t>
+  </si>
+  <si>
+    <t>Агаар цэвэршүүлэгч</t>
+  </si>
+  <si>
+    <t>Purificateur d'air</t>
+  </si>
+  <si>
+    <t>Purificador de ar</t>
+  </si>
+  <si>
+    <t>Purificador de aire</t>
+  </si>
+  <si>
+    <t>Luftrenser</t>
+  </si>
+  <si>
+    <t>Luchtreiniger</t>
+  </si>
+  <si>
+    <t>Ilmanpuhdistin</t>
+  </si>
+  <si>
+    <t>Luftreiniger</t>
+  </si>
+  <si>
+    <t>Lofthreinsitæki</t>
+  </si>
+  <si>
+    <t>Purificatore d'aria</t>
+  </si>
+  <si>
+    <t>Luftrenare</t>
+  </si>
+  <si>
+    <t>Пречиствател за въздух</t>
+  </si>
+  <si>
+    <t>Čistička vzduchu</t>
+  </si>
+  <si>
+    <t>Légtisztító</t>
+  </si>
+  <si>
+    <t>Ауа тазартқыш</t>
+  </si>
+  <si>
+    <t>Oczyszczacz powietrza</t>
+  </si>
+  <si>
+    <t>Purificator de aer</t>
+  </si>
+  <si>
+    <t>Очиститель воздуха</t>
+  </si>
+  <si>
+    <t>Очищувач повітря</t>
+  </si>
+  <si>
+    <t>立地式空調</t>
+  </si>
+  <si>
+    <t>เครื่องปรับอากาศแบบตั้งพื้น</t>
+  </si>
+  <si>
+    <t>Máy điều hòa không khí đặt trên sàn</t>
+  </si>
+  <si>
+    <t>Climatiseur posé au sol</t>
+  </si>
+  <si>
+    <t>Ar condicionado de chão</t>
+  </si>
+  <si>
+    <t>Aire acondicionado de montaje en suelo</t>
+  </si>
+  <si>
+    <t>Klimaanlæg til at stå på gulvet</t>
+  </si>
+  <si>
+    <t>Staande airconditioner</t>
+  </si>
+  <si>
+    <t>Lattialle sijoitettava ilmastointilaite</t>
+  </si>
+  <si>
+    <t>Climatiseur au sol</t>
+  </si>
+  <si>
+    <t>Stand-Klimaanlage</t>
+  </si>
+  <si>
+    <t>Standandi loftkæling</t>
+  </si>
+  <si>
+    <t>Condizionatore a pavimento</t>
+  </si>
+  <si>
+    <t>Frittstående klimaanlegg på gulv</t>
+  </si>
+  <si>
+    <t>Golvstående luftkonditionering</t>
+  </si>
+  <si>
+    <t>Подов климатик</t>
+  </si>
+  <si>
+    <t>Klimatizace stojící na podlaze</t>
+  </si>
+  <si>
+    <t>Padlóra állított légkondicionáló</t>
+  </si>
+  <si>
+    <t>Klimatyzator stojący</t>
+  </si>
+  <si>
+    <t>Aparat de condiționare a aerului poziționat pe podea</t>
+  </si>
+  <si>
+    <t>Klimatizačné zariadenie stojace na podlahe</t>
+  </si>
+  <si>
+    <t>Підлоговий кондиціонер</t>
+  </si>
+  <si>
+    <t>掛牆式空調</t>
+  </si>
+  <si>
+    <t>เครื่องปรับอากาศแบบติดผนัง</t>
+  </si>
+  <si>
+    <r>
+      <t>Máy điều hòa không khí lắp t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ờng</t>
+    </r>
+  </si>
+  <si>
+    <t>Climatiseur avec montage mural</t>
+  </si>
+  <si>
+    <t>Ar condicionado de parede</t>
+  </si>
+  <si>
+    <t>Aire acondicionado de montaje en pared</t>
+  </si>
+  <si>
+    <t>Klimaanlæg til vægmontering</t>
+  </si>
+  <si>
+    <t>Airconditioner met muurbevestiging</t>
+  </si>
+  <si>
+    <t>Seinään asennettava ilmastointilaite</t>
+  </si>
+  <si>
+    <t>Climatiseur mural</t>
+  </si>
+  <si>
+    <t>Wandmontierte Klimaanlage</t>
+  </si>
+  <si>
+    <t>Veggfest loftkæling</t>
+  </si>
+  <si>
+    <t>Condizionatore montato a parete</t>
+  </si>
+  <si>
+    <t>Veggmontert klimaanlegg</t>
+  </si>
+  <si>
+    <t>Väggmonterad luftkonditionering</t>
+  </si>
+  <si>
+    <t>Стенен климатик</t>
+  </si>
+  <si>
+    <t>Nástěnná klimatizace</t>
+  </si>
+  <si>
+    <t>Falra szerelhető légkondicionáló</t>
+  </si>
+  <si>
+    <t>Klimatyzator do montażu ściennego</t>
+  </si>
+  <si>
+    <t>Aparat de condiționare a aerului montat pe zid</t>
+  </si>
+  <si>
+    <t>Klimatizačné zariadenie upevnené na stenu</t>
+  </si>
+  <si>
+    <t>Настінний кондиціонер</t>
+  </si>
+  <si>
+    <t>窗型</t>
+  </si>
+  <si>
+    <t>เครื่องปรับอากาศแบบหน้าต่าง</t>
+  </si>
+  <si>
+    <t>Vừa với cửa sổ</t>
+  </si>
+  <si>
+    <t>Ajusté à la fenêtre</t>
+  </si>
+  <si>
+    <t>Ajuste de janela</t>
+  </si>
+  <si>
+    <t>Ajuste a la ventana</t>
+  </si>
+  <si>
+    <t>Vinduesmontering</t>
+  </si>
+  <si>
+    <t>Past in het raam</t>
+  </si>
+  <si>
+    <t>Ikkunan sovitus</t>
+  </si>
+  <si>
+    <t>Montage sur fenêtre</t>
+  </si>
+  <si>
+    <t>Fenster-Installation</t>
+  </si>
+  <si>
+    <t>Gluggafesting</t>
+  </si>
+  <si>
+    <t>Adatta a finestra</t>
+  </si>
+  <si>
+    <t>Vindufeste</t>
+  </si>
+  <si>
+    <t>Window Fit</t>
+  </si>
+  <si>
+    <t>Подходящ за прозорец</t>
+  </si>
+  <si>
+    <t>Montáž na okno</t>
+  </si>
+  <si>
+    <t>Ablak illesztés</t>
+  </si>
+  <si>
+    <t>Dopasowanie do okna</t>
+  </si>
+  <si>
+    <t>Fixare pe fereastră</t>
+  </si>
+  <si>
+    <t>Upevnenie na okno</t>
+  </si>
+  <si>
+    <t>Припасування вікна</t>
+  </si>
+  <si>
+    <t>吸塵器</t>
+  </si>
+  <si>
+    <t>吸塵機</t>
+  </si>
+  <si>
+    <t>Pengisap debu</t>
+  </si>
+  <si>
+    <t>เครื่องดูดฝุ่น</t>
+  </si>
+  <si>
+    <t>Máy hút bụi</t>
+  </si>
+  <si>
+    <t>جاروبرقی</t>
+  </si>
+  <si>
+    <t>שואב אבק</t>
+  </si>
+  <si>
+    <t>Aspirateur</t>
+  </si>
+  <si>
+    <t>Aspirador de pó</t>
+  </si>
+  <si>
+    <t>Aspirador</t>
+  </si>
+  <si>
+    <t>Støvsuger</t>
+  </si>
+  <si>
+    <t>Stofzuiger</t>
+  </si>
+  <si>
+    <t>Pölynimuri</t>
+  </si>
+  <si>
+    <t>Staubsauger</t>
+  </si>
+  <si>
+    <t>Ηλεκτρική σκούπα</t>
+  </si>
+  <si>
+    <t>Ryksuga</t>
+  </si>
+  <si>
+    <t>Aspirapolvere</t>
+  </si>
+  <si>
+    <t>﻿Støvsuger</t>
+  </si>
+  <si>
+    <t>﻿Dammsugare</t>
+  </si>
+  <si>
+    <t>Elektrikli süpürge</t>
+  </si>
+  <si>
+    <t>Fshesë me korrent</t>
+  </si>
+  <si>
+    <t>Прахосмукачка</t>
+  </si>
+  <si>
+    <t>Usisavač</t>
+  </si>
+  <si>
+    <t>Vysavač</t>
+  </si>
+  <si>
+    <t>﻿Tolmuimeja</t>
+  </si>
+  <si>
+    <t>Porszívó</t>
+  </si>
+  <si>
+    <t>Шаңсорғыш</t>
+  </si>
+  <si>
+    <t>﻿Putekļsūcēju</t>
+  </si>
+  <si>
+    <t>﻿Siurbliu</t>
+  </si>
+  <si>
+    <t>Правосмукалка</t>
+  </si>
+  <si>
+    <t>Odkurzacz</t>
+  </si>
+  <si>
+    <t>Aspirator</t>
+  </si>
+  <si>
+    <t>Пылесос</t>
+  </si>
+  <si>
+    <t>Usisivač</t>
+  </si>
+  <si>
+    <t>Vysávač</t>
+  </si>
+  <si>
+    <t>Sesalnik</t>
+  </si>
+  <si>
+    <t>Пилосос</t>
+  </si>
+  <si>
+    <t>Changyutkich</t>
+  </si>
+  <si>
+    <t>選取語言</t>
+  </si>
+  <si>
+    <t>เลือกภาษา</t>
+  </si>
+  <si>
+    <t>Chọn ngôn ngữ</t>
+  </si>
+  <si>
+    <t>Sélectionner la langue</t>
+  </si>
+  <si>
+    <t>Selecionar o idioma</t>
+  </si>
+  <si>
+    <t>Seleccionar idioma</t>
+  </si>
+  <si>
+    <t>Vælg sprog</t>
+  </si>
+  <si>
+    <t>Taal selecteren</t>
+  </si>
+  <si>
+    <t>Valitse kieli</t>
+  </si>
+  <si>
+    <t>Sprache auswählen</t>
+  </si>
+  <si>
+    <t>Veldu tungumál</t>
+  </si>
+  <si>
+    <t>Selezionare lingua</t>
+  </si>
+  <si>
+    <t>Velg språk</t>
+  </si>
+  <si>
+    <t>Välj språk</t>
+  </si>
+  <si>
+    <t>Избор на език</t>
+  </si>
+  <si>
+    <t>Vyberte jazyk</t>
+  </si>
+  <si>
+    <t>Nyelv kiválasztása</t>
+  </si>
+  <si>
+    <t>Wybierz język</t>
+  </si>
+  <si>
+    <t>Selectați limba</t>
+  </si>
+  <si>
+    <t>Výber jazyka</t>
+  </si>
+  <si>
+    <t>Вибір мови</t>
+  </si>
+  <si>
+    <t>搜尋</t>
+  </si>
+  <si>
+    <t>ค้นหา</t>
+  </si>
+  <si>
+    <t>Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Rechercher</t>
+  </si>
+  <si>
+    <t>Pesquisar</t>
+  </si>
+  <si>
+    <t>Buscar</t>
+  </si>
+  <si>
+    <t>Søg</t>
+  </si>
+  <si>
+    <t>Zoeken</t>
+  </si>
+  <si>
+    <t>Hae</t>
+  </si>
+  <si>
+    <t>Suchen</t>
+  </si>
+  <si>
+    <t>Leita</t>
+  </si>
+  <si>
+    <t>Ricerca</t>
+  </si>
+  <si>
+    <t>Søk</t>
+  </si>
+  <si>
+    <t>Sök</t>
+  </si>
+  <si>
+    <t>Търсене</t>
+  </si>
+  <si>
+    <t>Vyhledávání</t>
+  </si>
+  <si>
+    <t>Keresés</t>
+  </si>
+  <si>
+    <t>Wyszukaj</t>
+  </si>
+  <si>
+    <t>Căutare</t>
+  </si>
+  <si>
+    <t>Hľadanie</t>
+  </si>
+  <si>
+    <t>Пошук</t>
+  </si>
+  <si>
+    <t>輸入搜尋關鍵字。</t>
+  </si>
+  <si>
+    <t>ป้อนคีย์เวิร์ดการค้นหาของคุณ</t>
+  </si>
+  <si>
+    <t>Nhập từ khóa tìm kiếm.</t>
+  </si>
+  <si>
+    <t>Entrez un mot-clé de recherche.</t>
+  </si>
+  <si>
+    <t>Digitar sua palavra-chave de pesquisa.</t>
+  </si>
+  <si>
+    <t>Ingrese la palabra clave de búsqueda.</t>
+  </si>
+  <si>
+    <t>Indtast dit søgeord.</t>
+  </si>
+  <si>
+    <t>Geef het trefwoord in waarnaar u wilt zoeken.</t>
+  </si>
+  <si>
+    <t>Anna hakusanasi.</t>
+  </si>
+  <si>
+    <t>Saisissez votre mot-clé de recherche.</t>
+  </si>
+  <si>
+    <t>Geben Sie Ihren Suchbegriff ein.</t>
+  </si>
+  <si>
+    <t>Sláðu inn leitarorðið þitt.</t>
+  </si>
+  <si>
+    <t>Digitare la parola chiave di ricerca.</t>
+  </si>
+  <si>
+    <t>Skriv inn søkeordet ditt.</t>
+  </si>
+  <si>
+    <t>Introduzca la palabra clave de búsqueda.</t>
+  </si>
+  <si>
+    <t>Ange sökord.</t>
+  </si>
+  <si>
+    <t>Въведете ключова дума за търсене.</t>
+  </si>
+  <si>
+    <t>Zadejte klíčové slovo pro vyhledávání.</t>
+  </si>
+  <si>
+    <t>Üsse be a keresőszót.</t>
+  </si>
+  <si>
+    <t>Wprowadź wyszukiwane słowa kluczowe.</t>
+  </si>
+  <si>
+    <t>Introduceți cuvântul cheie pentru căutare.</t>
+  </si>
+  <si>
+    <t>Zadajte hľadané kľúčové slovo.</t>
+  </si>
+  <si>
+    <t>Введіть ключове слово для пошуку.</t>
+  </si>
+  <si>
+    <t>搜尋目錄</t>
+  </si>
+  <si>
+    <t>ค้นหาตาราง</t>
+  </si>
+  <si>
+    <t>Tìm kiếm mục lục</t>
+  </si>
+  <si>
+    <t>Rechercher dans la table des matières</t>
+  </si>
+  <si>
+    <t>Pesquisar índice</t>
+  </si>
+  <si>
+    <t>Buscar en tabla de contenido</t>
+  </si>
+  <si>
+    <t>Søg i indholdsfortegnelsen</t>
+  </si>
+  <si>
+    <t>Inhoudsopgave doorzoeken</t>
+  </si>
+  <si>
+    <t>Hae sisällysluettelosta</t>
+  </si>
+  <si>
+    <t>Inhaltsverzeichnis durchsuchen</t>
+  </si>
+  <si>
+    <t>Leita í efnisyfirliti</t>
+  </si>
+  <si>
+    <t>Ricerca nel Sommario</t>
+  </si>
+  <si>
+    <t>Søk i innholdsfortegnelse</t>
+  </si>
+  <si>
+    <t>Sök i Innehåll</t>
+  </si>
+  <si>
+    <t>Търсене в съдържанието</t>
+  </si>
+  <si>
+    <t>Vyhledávání v obsahu</t>
+  </si>
+  <si>
+    <t>Tartalomjegyzék keresése</t>
+  </si>
+  <si>
+    <t>Wyszukaj spis treści</t>
+  </si>
+  <si>
+    <t>Căutați în Cuprins</t>
+  </si>
+  <si>
+    <t>Hľadanie v obsahu</t>
+  </si>
+  <si>
+    <t>Пошук у Змісті</t>
+  </si>
+  <si>
+    <t>關鍵字太短。</t>
+  </si>
+  <si>
+    <t>คีย์เวิร์ดสั้นเกินไป</t>
+  </si>
+  <si>
+    <t>Từ khóa quá ngắn.</t>
+  </si>
+  <si>
+    <t>Le mot-clé est trop court.</t>
+  </si>
+  <si>
+    <t>A palavra-chave é muito curta.</t>
+  </si>
+  <si>
+    <t>La palabra clave es demasiado corta.</t>
+  </si>
+  <si>
+    <t>Nøgleordet er for kort.</t>
+  </si>
+  <si>
+    <t>Het trefwoord is te kort.</t>
+  </si>
+  <si>
+    <t>Hakusana on liian lyhyt.</t>
+  </si>
+  <si>
+    <t>Suchbegriff ist zu kurz.</t>
+  </si>
+  <si>
+    <t>Leitarorð of stutt.</t>
+  </si>
+  <si>
+    <t>La parola chiave è troppo breve.</t>
+  </si>
+  <si>
+    <t>Søkeordet er for kort.</t>
+  </si>
+  <si>
+    <t>Sökordet är för kort.</t>
+  </si>
+  <si>
+    <t>Ключовата дума е твърде кратка.</t>
+  </si>
+  <si>
+    <t>Klíčové slovo je příliš krátké.</t>
+  </si>
+  <si>
+    <t>A keresőszó túl rövid.</t>
+  </si>
+  <si>
+    <t>Słowo kluczowe jest za krótkie.</t>
+  </si>
+  <si>
+    <t>Cuvântul cheie este prea scurt.</t>
+  </si>
+  <si>
+    <t>Kľúčové slovo je príliš krátke.</t>
+  </si>
+  <si>
+    <t>Ключове слово занадто коротке.</t>
+  </si>
+  <si>
+    <t>更多</t>
+  </si>
+  <si>
+    <t>เพิ่มเติม</t>
+  </si>
+  <si>
+    <t>Xem thêm</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>Mais</t>
+  </si>
+  <si>
+    <t>Más</t>
+  </si>
+  <si>
+    <t>Mere</t>
+  </si>
+  <si>
+    <t>Meer</t>
+  </si>
+  <si>
+    <t>Lisää</t>
+  </si>
+  <si>
+    <t>Mehr</t>
+  </si>
+  <si>
+    <t>Meira</t>
+  </si>
+  <si>
+    <t>Altro</t>
+  </si>
+  <si>
+    <t>Mer</t>
+  </si>
+  <si>
+    <t>Повече</t>
+  </si>
+  <si>
+    <t>Další</t>
+  </si>
+  <si>
+    <t>Több információ</t>
+  </si>
+  <si>
+    <t>Więcej</t>
+  </si>
+  <si>
+    <t>Mai multe</t>
+  </si>
+  <si>
+    <t>Viac</t>
+  </si>
+  <si>
+    <t>Більше</t>
+  </si>
+  <si>
+    <t>隱藏</t>
+  </si>
+  <si>
+    <t>ซ่อน</t>
+  </si>
+  <si>
+    <t>Ẩn</t>
+  </si>
+  <si>
+    <t>Masquer</t>
+  </si>
+  <si>
+    <t>Ocultar</t>
+  </si>
+  <si>
+    <t>Skjul</t>
+  </si>
+  <si>
+    <t>Verbergen</t>
+  </si>
+  <si>
+    <t>Piilota</t>
+  </si>
+  <si>
+    <t>Ausblenden</t>
+  </si>
+  <si>
+    <t>Fela</t>
+  </si>
+  <si>
+    <t>Nascondi</t>
+  </si>
+  <si>
+    <t>Dölj</t>
+  </si>
+  <si>
+    <t>Скриване</t>
+  </si>
+  <si>
+    <t>Skrýt</t>
+  </si>
+  <si>
+    <t>Elrejtés</t>
+  </si>
+  <si>
+    <t>Ukryj</t>
+  </si>
+  <si>
+    <t>Ascundeți</t>
+  </si>
+  <si>
+    <t>Skryť</t>
+  </si>
+  <si>
+    <t>Сховати</t>
+  </si>
+  <si>
+    <t>關閉</t>
+  </si>
+  <si>
+    <t>ปิด</t>
+  </si>
+  <si>
+    <t>Đóng</t>
+  </si>
+  <si>
+    <t>סגור</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fermer</t>
+  </si>
+  <si>
+    <t>Fechar</t>
+  </si>
+  <si>
+    <t>Cerrar</t>
+  </si>
+  <si>
+    <t>Luk</t>
+  </si>
+  <si>
+    <t>Sluiten</t>
+  </si>
+  <si>
+    <t>Sulje</t>
+  </si>
+  <si>
+    <t>Schließen</t>
+  </si>
+  <si>
+    <t>Κλείσιμο</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loka</t>
+  </si>
+  <si>
+    <t>Chiusa</t>
+  </si>
+  <si>
+    <t>Lukk</t>
+  </si>
+  <si>
+    <t>Fechar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cerrado</t>
+  </si>
+  <si>
+    <t>Stäng</t>
+  </si>
+  <si>
+    <t>Kapalı</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Затваряне</t>
+  </si>
+  <si>
+    <t>Zatvoreno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zavřít</t>
+  </si>
+  <si>
+    <t>Sulge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bezárás</t>
+  </si>
+  <si>
+    <t>Aizvērts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uždaryti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zamknij</t>
+  </si>
+  <si>
+    <t>Închideți</t>
+  </si>
+  <si>
+    <t>Zavrieť</t>
+  </si>
+  <si>
+    <t>Zaprto</t>
+  </si>
+  <si>
+    <t>Закрити</t>
+  </si>
+  <si>
+    <r>
+      <t>找不到搜尋結果。&lt;br/&gt;按下「關閉」按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鈕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以前往主頁面。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ไม่พบผลการค้นหา</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>กดปุ่มปิดเพื่อไปยังหน้าหลัก</t>
+    </r>
+  </si>
+  <si>
+    <t>Không tìm thấy kết quả tìm kiếm nào.&lt;br/&gt;Hãy nhấn nút Đóng để đi tới trang chính.</t>
+  </si>
+  <si>
+    <t>Aucun résultat de recherche trouvé.&lt;br/&gt;Appuyez sur le bouton Fermer pour accéder à la page principale.</t>
+  </si>
+  <si>
+    <t>Nenhum resultado de pesquisa encontrado.&lt;br/&gt;Pressione o botão Fechar para ir para a página principal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No se encontraron resultados de búsqueda.&lt;br/&gt;Pulse el botón Cerrar para ir a la página principal.</t>
+  </si>
+  <si>
+    <t>Ingen søgeresultater fundet.&lt;br/&gt;Tryk på knappen Luk for at gå til hovedsiden.</t>
+  </si>
+  <si>
+    <t>Er zijn geen zoekresultaten gevonden.&lt;br/&gt;Druk op de knop Sluiten om naar de startpagina te gaan.</t>
+  </si>
+  <si>
+    <t>Hakutuloksia ei löytynyt.&lt;br/&gt;Siirry pääsivulle painamalla Sulje-painiketta.</t>
+  </si>
+  <si>
+    <t>Aucun résultat de recherche trouvé.&lt;br/&gt;Appuyez sur le bouton Fermer pour revenir à la page principale.</t>
+  </si>
+  <si>
+    <t>Keine Suchergebnisse gefunden.&lt;br/&gt;Drücken Sie die Schließen-Taste, um zur Hauptseite zurückzukehren.</t>
+  </si>
+  <si>
+    <t>Engar leitarniðurstöður fundust.&lt;br/&gt;Ýttu á loka takkann til að fara á aðalsíðuna.</t>
+  </si>
+  <si>
+    <t>La ricerca non ha prodotto risultati.&lt;br/&gt;Premere il pulsante di chiusura per passare alla pagina principale.</t>
+  </si>
+  <si>
+    <t>Ingen søkeresultater funnet.&lt;br/&gt;Trykk på Lukk-knappen for å gå til hovedsiden.</t>
+  </si>
+  <si>
+    <t>No se han encontrado resultados de búsqueda.&lt;br/&gt;Pulse el botón Cerrar para ir a la página principal.</t>
+  </si>
+  <si>
+    <t>Inga sökresultat. &lt;br/&gt; Tryck på knappen Stäng för att gå till startsidan.</t>
+  </si>
+  <si>
+    <t>Няма намерени резултати от търсенето.&lt;br/&gt;Натиснете бутона „Затваряне“, за да преминете към главната страница.</t>
+  </si>
+  <si>
+    <t>Nenalezeny žádné výsledky vyhledávání.&lt;br/&gt;Stisknutím tlačítka Zavřít přejdete na hlavní stránku.</t>
+  </si>
+  <si>
+    <t>Nincs találat.&lt;br/&gt;Nyomja meg a Bezárás gombot a főoldalra visszatéréshez.</t>
+  </si>
+  <si>
+    <t>Nie znaleziono wyników wyszukiwania.&lt;br/&gt;Naciśnij przycisk Zamknij, aby przejść do strony głównej.</t>
+  </si>
+  <si>
+    <t>Nu au fost găsite rezultate.&lt;br/&gt;Apăsați butonul de închidere pentru a ajunge pe pagina principală.</t>
+  </si>
+  <si>
+    <t>Nenašli sa žiadne výsledky vyhľadávania.&lt;br/&gt;Stlačením tlačidla Zavrieť sa vráťte na hlavnú stránku.</t>
+  </si>
+  <si>
+    <t>Результатів пошуку не знайдено.&lt;br/&gt;Натисніть кнопку «Закрити», щоб перейти на головну сторінку.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1764,6 +3510,22 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1905,7 +3667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1957,9 +3719,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1981,28 +3740,61 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 4" xfId="14" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="7"/>
+    <cellStyle name="Normal 2 2" xfId="9"/>
+    <cellStyle name="Normal 3" xfId="6"/>
+    <cellStyle name="Normal 4" xfId="14"/>
     <cellStyle name="좋음" xfId="17" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="표준 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="표준 2 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="표준 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="표준 2 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="표준 2 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="표준 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="표준 3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="표준 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="표준 4" xfId="5" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="표준 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="표준 2" xfId="2"/>
+    <cellStyle name="표준 2 2" xfId="4"/>
+    <cellStyle name="표준 2 2 2" xfId="8"/>
+    <cellStyle name="표준 2 3" xfId="1"/>
+    <cellStyle name="표준 2 3 2" xfId="15"/>
+    <cellStyle name="표준 2 4" xfId="11"/>
+    <cellStyle name="표준 3" xfId="3"/>
+    <cellStyle name="표준 3 2" xfId="10"/>
+    <cellStyle name="표준 3 3" xfId="13"/>
+    <cellStyle name="표준 4" xfId="5"/>
+    <cellStyle name="표준 4 2" xfId="12"/>
     <cellStyle name="하이퍼링크" xfId="16" builtinId="8"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="82">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2623,8 +4415,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2698,42 +4488,723 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2758,6 +5229,12 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2776,6 +5253,132 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2821,63 +5424,103 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="B3:J21" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="B3:J21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Key" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="EN" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="AR" dataDxfId="37"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="BG" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="FR" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DE" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="IT" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PL" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ES" dataDxfId="31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table13" displayName="Table13" ref="B3:AX23" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="B3:AX23"/>
+  <tableColumns count="49">
+    <tableColumn id="1" name="Key" dataDxfId="79"/>
+    <tableColumn id="2" name="EN" dataDxfId="78"/>
+    <tableColumn id="6" name="KO" dataDxfId="77"/>
+    <tableColumn id="11" name="ZH_CN" dataDxfId="76"/>
+    <tableColumn id="12" name="ZH_TW" dataDxfId="75"/>
+    <tableColumn id="13" name="ZH_HK" dataDxfId="74"/>
+    <tableColumn id="15" name="IN" dataDxfId="73"/>
+    <tableColumn id="16" name="TH" dataDxfId="72"/>
+    <tableColumn id="17" name="VI" dataDxfId="71"/>
+    <tableColumn id="18" name="MN" dataDxfId="70"/>
+    <tableColumn id="3" name="AR" dataDxfId="69"/>
+    <tableColumn id="19" name="FA" dataDxfId="68" dataCellStyle="표준 2"/>
+    <tableColumn id="20" name="HE" dataDxfId="67" dataCellStyle="표준 2"/>
+    <tableColumn id="4" name="CFR" dataDxfId="66" dataCellStyle="표준 2"/>
+    <tableColumn id="5" name="BPT" dataDxfId="65" dataCellStyle="표준 2"/>
+    <tableColumn id="7" name="MES" dataDxfId="64" dataCellStyle="표준 2"/>
+    <tableColumn id="8" name="AES" dataDxfId="63" dataCellStyle="표준 2"/>
+    <tableColumn id="9" name="DA" dataDxfId="62" dataCellStyle="표준 2"/>
+    <tableColumn id="10" name="NL" dataDxfId="61" dataCellStyle="표준 2"/>
+    <tableColumn id="21" name="FI" dataDxfId="60" dataCellStyle="표준 2"/>
+    <tableColumn id="22" name="FR" dataDxfId="59" dataCellStyle="표준 2"/>
+    <tableColumn id="23" name="DE" dataDxfId="58" dataCellStyle="표준 2"/>
+    <tableColumn id="24" name="EL" dataDxfId="57" dataCellStyle="표준 2"/>
+    <tableColumn id="25" name="IS" dataDxfId="56" dataCellStyle="표준 2"/>
+    <tableColumn id="26" name="IT" dataDxfId="55" dataCellStyle="표준 2"/>
+    <tableColumn id="27" name="MT" dataDxfId="54" dataCellStyle="표준 2"/>
+    <tableColumn id="28" name="NO" dataDxfId="53" dataCellStyle="표준 2"/>
+    <tableColumn id="29" name="PT" dataDxfId="52" dataCellStyle="표준 2"/>
+    <tableColumn id="30" name="ES" dataDxfId="51" dataCellStyle="표준 2"/>
+    <tableColumn id="31" name="SV" dataDxfId="50" dataCellStyle="표준 2"/>
+    <tableColumn id="32" name="TR" dataDxfId="49" dataCellStyle="표준 2"/>
+    <tableColumn id="33" name="SQ" dataDxfId="48" dataCellStyle="표준 2"/>
+    <tableColumn id="34" name="BG" dataDxfId="47" dataCellStyle="표준 2"/>
+    <tableColumn id="35" name="HR" dataDxfId="46" dataCellStyle="표준 2"/>
+    <tableColumn id="36" name="CS" dataDxfId="45" dataCellStyle="표준 2"/>
+    <tableColumn id="37" name="ET" dataDxfId="44" dataCellStyle="표준 2"/>
+    <tableColumn id="38" name="HU" dataDxfId="43" dataCellStyle="표준 2"/>
+    <tableColumn id="39" name="KK" dataDxfId="42" dataCellStyle="표준 2"/>
+    <tableColumn id="40" name="LV" dataDxfId="41" dataCellStyle="표준 2"/>
+    <tableColumn id="41" name="LT" dataDxfId="40" dataCellStyle="표준 2"/>
+    <tableColumn id="42" name="MK" dataDxfId="39" dataCellStyle="표준 2"/>
+    <tableColumn id="43" name="PL" dataDxfId="38" dataCellStyle="표준 2"/>
+    <tableColumn id="44" name="RO" dataDxfId="37" dataCellStyle="표준 2"/>
+    <tableColumn id="45" name="RU" dataDxfId="36" dataCellStyle="표준 2"/>
+    <tableColumn id="46" name="SR" dataDxfId="35" dataCellStyle="표준 2"/>
+    <tableColumn id="47" name="SK" dataDxfId="34" dataCellStyle="표준 2"/>
+    <tableColumn id="48" name="SL" dataDxfId="33" dataCellStyle="표준 2"/>
+    <tableColumn id="49" name="UK" dataDxfId="32" dataCellStyle="표준 2"/>
+    <tableColumn id="50" name="UZ" dataDxfId="31" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13367" displayName="Table13367" ref="C3:P13" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="C3:P13" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table13367" displayName="Table13367" ref="C3:P13" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="C3:P13"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Key" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{05C2B4BA-00C8-45AC-AF2C-1EAD16AE68C9}" name="Link" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="KO" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="EN" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="FR" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="FR(AM)" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="DE" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="IT" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="PL" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ES" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="ES(AM)" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="TH" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="VI" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="TC" dataDxfId="15"/>
+    <tableColumn id="1" name="Key" dataDxfId="28"/>
+    <tableColumn id="14" name="Link" dataDxfId="27"/>
+    <tableColumn id="3" name="KO" dataDxfId="26"/>
+    <tableColumn id="2" name="EN" dataDxfId="25"/>
+    <tableColumn id="5" name="FR" dataDxfId="24"/>
+    <tableColumn id="6" name="FR(AM)" dataDxfId="23"/>
+    <tableColumn id="7" name="DE" dataDxfId="22"/>
+    <tableColumn id="8" name="IT" dataDxfId="21"/>
+    <tableColumn id="9" name="PL" dataDxfId="20"/>
+    <tableColumn id="10" name="ES" dataDxfId="19"/>
+    <tableColumn id="11" name="ES(AM)" dataDxfId="18"/>
+    <tableColumn id="12" name="TH" dataDxfId="17"/>
+    <tableColumn id="13" name="VI" dataDxfId="16"/>
+    <tableColumn id="4" name="TC" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{90DB9FF8-285F-439C-BAC1-04DA78DA8E52}" name="Table133673" displayName="Table133673" ref="C3:O5" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="C3:O5" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table133673" displayName="Table133673" ref="C3:O5" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="C3:O5"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{A1F6A4C1-F017-441F-BEEB-5A1D85C8A191}" name="Key" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{81FB1F49-2F74-47FB-8140-9580D98DA72A}" name="KO" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{FC2EA5F3-5F59-4D94-8DFE-0C19F7C84892}" name="EN" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{46CCC21F-8B8C-4D7A-ADCB-5B6A1EE23D25}" name="FR" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{ADF52DA2-B211-4864-BFCE-F91B0BA62FE6}" name="FR(AM)" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{55F6F001-51EE-41B1-884D-1A74E2C306C1}" name="DE" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{C42D0BB3-0E43-4823-8ECB-285A5A262DFA}" name="IT" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{DFC5FB8D-8D63-4230-BAB3-18B2A461F4F7}" name="PL" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{1349FB53-42B7-4C14-AF88-45430F7534BC}" name="ES" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{C2A7FE7F-AB77-41D4-9C01-8B7209502BDF}" name="ES(AM)" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{555B5701-1BF7-45DB-9604-0B6F705DFECA}" name="TH" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{B72E3DA5-F977-41EB-8B12-60152D5E5B97}" name="VI" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{0B7EAF29-D25B-49C3-BFDA-7481AB4FE288}" name="TC" dataDxfId="0"/>
+    <tableColumn id="1" name="Key" dataDxfId="12"/>
+    <tableColumn id="3" name="KO" dataDxfId="11"/>
+    <tableColumn id="2" name="EN" dataDxfId="10"/>
+    <tableColumn id="5" name="FR" dataDxfId="9"/>
+    <tableColumn id="6" name="FR(AM)" dataDxfId="8"/>
+    <tableColumn id="7" name="DE" dataDxfId="7"/>
+    <tableColumn id="8" name="IT" dataDxfId="6"/>
+    <tableColumn id="9" name="PL" dataDxfId="5"/>
+    <tableColumn id="10" name="ES" dataDxfId="4"/>
+    <tableColumn id="11" name="ES(AM)" dataDxfId="3"/>
+    <tableColumn id="12" name="TH" dataDxfId="2"/>
+    <tableColumn id="13" name="VI" dataDxfId="1"/>
+    <tableColumn id="4" name="TC" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3169,22 +5812,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B3:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:AX23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="D24" sqref="D24"/>
+      <selection pane="topRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="10" width="30.625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="1"/>
+    <col min="2" max="3" width="30.625" style="1" customWidth="1"/>
+    <col min="4" max="11" width="30.625" style="28" customWidth="1"/>
+    <col min="12" max="12" width="30.625" style="1" customWidth="1"/>
+    <col min="13" max="50" width="30.625" style="28" customWidth="1"/>
+    <col min="51" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" s="2" customFormat="1">
+    <row r="3" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
@@ -3192,524 +5838,2899 @@
         <v>1</v>
       </c>
       <c r="D3" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="17" t="s">
+      <c r="M3" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG3" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH3" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ3" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK3" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL3" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM3" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN3" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO3" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP3" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="AQ3" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR3" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="AS3" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT3" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="AU3" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="AV3" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW3" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="AX3" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM4" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN4" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="AO4" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR4" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="AS4" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="AT4" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU4" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="AV4" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="AW4" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX4" s="8" t="s">
+        <v>275</v>
+      </c>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
+    <row r="5" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="19" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="U5" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="W5" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="X5" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y5" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z5" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA5" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB5" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC5" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD5" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE5" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF5" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG5" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH5" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI5" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ5" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK5" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL5" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM5" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN5" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO5" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP5" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="AQ5" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR5" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="AS5" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="AT5" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="AU5" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="AV5" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW5" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="AX5" s="28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA6" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD6" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG6" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH6" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK6" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL6" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AO6" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="AP6" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="AQ6" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="AR6" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="AS6" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="AT6" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU6" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="AV6" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="AW6" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX6" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="2:50" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="V7" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="W7" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="X7" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y7" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z7" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA7" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB7" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC7" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD7" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE7" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF7" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="AG7" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH7" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI7" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ7" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK7" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL7" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM7" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AN7" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="AO7" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="AP7" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="AQ7" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="AR7" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="AS7" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT7" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="AU7" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="AV7" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="AW7" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="AX7" s="26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="X8" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA8" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC8" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE8" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="AF8" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="AG8" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="AH8" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI8" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ8" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="AK8" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL8" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="AM8" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AN8" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="AO8" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP8" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="AQ8" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AR8" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AS8" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AT8" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU8" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="AV8" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="AW8" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="AX8" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="2:50" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>8</v>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="X9" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA9" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB9" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC9" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD9" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE9" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF9" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG9" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH9" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="AI9" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ9" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK9" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL9" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM9" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN9" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO9" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP9" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ9" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="AR9" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="AS9" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT9" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU9" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="AV9" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW9" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="AX9" s="9" t="s">
+        <v>286</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="9" t="s">
+    <row r="10" spans="2:50" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="D10" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="M10" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="X10" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z10" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA10" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB10" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC10" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD10" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE10" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="AF10" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG10" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH10" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="AI10" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ10" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="AK10" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL10" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="AM10" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN10" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO10" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP10" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ10" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="AR10" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="AS10" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT10" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU10" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="AV10" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW10" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="AX10" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="D11" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="M11" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="X11" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="Z11" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="AA11" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB11" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="AC11" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD11" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE11" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="AF11" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG11" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH11" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="AI11" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ11" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="AK11" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL11" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="AM11" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN11" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO11" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP11" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ11" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="AR11" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="AS11" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT11" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU11" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="AV11" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW11" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="AX11" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B12" s="18" t="s">
         <v>28</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="AA12" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC12" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="AE12" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="AH12" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI12" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="AK12" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="AL12" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="AM12" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="AN12" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="AO12" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="AP12" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="AQ12" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR12" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="AS12" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="AT12" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="AU12" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="AV12" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="AW12" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="AX12" s="9" t="s">
+        <v>485</v>
+      </c>
     </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="9" t="s">
+    <row r="13" spans="2:50" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="26"/>
+      <c r="AR13" s="26"/>
+      <c r="AS13" s="26"/>
+      <c r="AT13" s="26"/>
+      <c r="AU13" s="26"/>
+      <c r="AV13" s="26"/>
+      <c r="AW13" s="26"/>
+      <c r="AX13" s="26"/>
+    </row>
+    <row r="14" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="D14" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="M14" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="X14" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA14" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB14" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="AC14" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="AE14" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="AF14" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG14" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH14" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="AI14" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ14" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="AK14" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL14" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="AM14" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN14" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO14" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP14" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ14" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="AR14" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="AS14" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT14" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU14" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="AV14" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW14" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="AX14" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="D15" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="M15" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="X15" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC15" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="AF15" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG15" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="AI15" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ15" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="AK15" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL15" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="AM15" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN15" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO15" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP15" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ15" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="AR15" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="AS15" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT15" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU15" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="AV15" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW15" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="AX15" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="2:50" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="18" t="s">
         <v>37</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>529</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>530</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="X16" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="Z16" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="AA16" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB16" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="AC16" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD16" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE16" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="AF16" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG16" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH16" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="AI16" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ16" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK16" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL16" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="AM16" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN16" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO16" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP16" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ16" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="AR16" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="AS16" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT16" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU16" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="AV16" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW16" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="AX16" s="9" t="s">
+        <v>286</v>
+      </c>
     </row>
-    <row r="8" spans="2:10" ht="33">
-      <c r="B8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="9" t="s">
+    <row r="17" spans="2:50" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="D17" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>553</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="M17" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="X17" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z17" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="AA17" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB17" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC17" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD17" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE17" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AF17" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG17" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH17" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI17" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ17" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="AK17" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL17" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="AM17" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN17" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO17" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP17" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ17" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="AR17" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="AS17" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT17" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU17" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="AV17" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW17" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="AX17" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="2:50" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="D18" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>574</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="M18" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="X18" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="Z18" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="AA18" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB18" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="AC18" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD18" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="AE18" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="AF18" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG18" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH18" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="AI18" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ18" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="AK18" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL18" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="AM18" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN18" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO18" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP18" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ18" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="AR18" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="AS18" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT18" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU18" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="AV18" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW18" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="AX18" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B19" s="18" t="s">
         <v>46</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="X19" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="Z19" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA19" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB19" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="AC19" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD19" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="AE19" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="AF19" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG19" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH19" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="AI19" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ19" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="AK19" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL19" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="AM19" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN19" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO19" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP19" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ19" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="AR19" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="AS19" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT19" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU19" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="AV19" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW19" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="AX19" s="9" t="s">
+        <v>286</v>
+      </c>
     </row>
-    <row r="9" spans="2:10" ht="33">
-      <c r="B9" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="9" t="s">
+    <row r="20" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B20" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="D20" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="M20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="W20" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="X20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z20" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB20" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="AC20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD20" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="AE20" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="AF20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH20" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="AI20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ20" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="AK20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL20" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="AM20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP20" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ20" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="AR20" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="AS20" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT20" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU20" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="AV20" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW20" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="AX20" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="D21" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>632</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="M21" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="Z21" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="AA21" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB21" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC21" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="AD21" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AE21" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="AF21" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="AG21" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH21" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="AI21" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="AJ21" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="AK21" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="AL21" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="AM21" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN21" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="AO21" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="AP21" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ21" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="AR21" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="AS21" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT21" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="AU21" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV21" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="AW21" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="AX21" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="2:50" ht="66" x14ac:dyDescent="0.3">
+      <c r="B22" s="18" t="s">
         <v>55</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>663</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>664</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>665</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="X22" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="Z22" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA22" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB22" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="AC22" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD22" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="AE22" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="AF22" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG22" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH22" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="AI22" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ22" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="AK22" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL22" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="AM22" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN22" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO22" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP22" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ22" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="AR22" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="AS22" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT22" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU22" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="AV22" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW22" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="AX22" s="9" t="s">
+        <v>286</v>
+      </c>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="23" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B23" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="33">
-      <c r="B14" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="33">
-      <c r="B15" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="33">
-      <c r="B16" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="66">
-      <c r="B20" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="19" t="s">
-        <v>154</v>
-      </c>
+      <c r="D23" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3722,139 +8743,139 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0CC4FC-2E38-4980-8DFE-075CF928C970}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14">
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>8</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>220</v>
+        <v>68</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3864,15 +8885,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
@@ -3884,68 +8905,68 @@
     <col min="17" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" s="2" customFormat="1">
+    <row r="3" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="I3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="K3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="L3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>162</v>
+      <c r="M3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="33">
+    <row r="4" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -3958,21 +8979,21 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="2:16" ht="33">
+    <row r="5" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -3985,21 +9006,21 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -4012,21 +9033,21 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="2:16" ht="16.5" customHeight="1">
+    <row r="7" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -4039,21 +9060,21 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>199</v>
+        <v>102</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -4066,18 +9087,18 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>199</v>
+        <v>102</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4091,18 +9112,18 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="2:16" ht="33">
+    <row r="10" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -4116,18 +9137,18 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -4141,18 +9162,18 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -4166,18 +9187,18 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4191,18 +9212,18 @@
       <c r="O13" s="3"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="2:16" ht="16.5" customHeight="1">
+    <row r="14" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -4216,18 +9237,18 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -4244,18 +9265,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{5EF316D5-DC8E-451F-827E-67F6BF9A51F0}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{AFB10044-E153-4979-8998-63EAC031AB8F}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{68D140F2-7432-43F8-BA23-2F0A5A2DC1BC}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{B1EB3F20-3D86-4EA9-AD52-34ECA0901002}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{3AB872FF-D76B-40D2-A8F9-3FCB368246AE}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{E48A3467-4BAD-479F-82E2-ABDAF7C874C4}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{931F4082-DE29-4C81-AC69-11809B211362}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{C7C376F4-6575-44BC-BABE-4F7B9FB7873A}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{2F4F38D4-996A-4C0A-BBF9-8994E2E70C2B}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{FDFE7412-15F1-462C-B916-7E6EAE5BA93C}"/>
-    <hyperlink ref="D14" r:id="rId11" xr:uid="{BA23237E-D76A-4DA0-A26D-3C9C18E7A1C7}"/>
-    <hyperlink ref="D15" r:id="rId12" xr:uid="{B2C6D704-53F6-48CF-A4A8-7A93ED0FA3C8}"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
@@ -4266,7 +9287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D47F4AF-E624-409E-895A-B6D9FBD8B196}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4274,7 +9295,7 @@
       <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
@@ -4285,62 +9306,62 @@
     <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" s="2" customFormat="1">
+    <row r="3" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="K3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>162</v>
+      <c r="L3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4353,18 +9374,18 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>

--- a/Martian/jre/lib/resource/excel-template/template1.xlsx
+++ b/Martian/jre/lib/resource/excel-template/template1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMC\Desktop\Martian\240322\jre\lib\resource\excel-template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Java-workspace\Martian\jre\lib\resource\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F20F9A7-7CB2-4AB9-A6A1-52A4746977F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="3015" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Message" sheetId="21" r:id="rId1"/>
@@ -22,17 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -3326,7 +3316,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -3606,7 +3596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3679,55 +3669,726 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Normal 2" xfId="7"/>
-    <cellStyle name="Normal 2 2" xfId="9"/>
-    <cellStyle name="Normal 3" xfId="6"/>
-    <cellStyle name="Normal 4" xfId="14"/>
+    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="14" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="좋음" xfId="17" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2"/>
-    <cellStyle name="표준 2 2" xfId="4"/>
-    <cellStyle name="표준 2 2 2" xfId="8"/>
-    <cellStyle name="표준 2 3" xfId="1"/>
-    <cellStyle name="표준 2 3 2" xfId="15"/>
-    <cellStyle name="표준 2 4" xfId="11"/>
-    <cellStyle name="표준 3" xfId="3"/>
-    <cellStyle name="표준 3 2" xfId="10"/>
-    <cellStyle name="표준 3 3" xfId="13"/>
-    <cellStyle name="표준 4" xfId="5"/>
-    <cellStyle name="표준 4 2" xfId="12"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="표준 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="표준 2 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="표준 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="표준 2 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="표준 2 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="표준 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="표준 3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="표준 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="표준 4" xfId="5" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="표준 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="하이퍼링크" xfId="16" builtinId="8"/>
   </cellStyles>
   <dxfs count="82">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4651,698 +5312,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5357,103 +5326,103 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B3:AX23" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
-  <autoFilter ref="B3:AX23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table134" displayName="Table134" ref="B3:AX23" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="B3:AX23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="49">
-    <tableColumn id="1" name="Key" dataDxfId="48"/>
-    <tableColumn id="2" name="EN" dataDxfId="47"/>
-    <tableColumn id="6" name="KO" dataDxfId="46"/>
-    <tableColumn id="11" name="ZH_CN" dataDxfId="45"/>
-    <tableColumn id="12" name="ZH_TW" dataDxfId="44"/>
-    <tableColumn id="13" name="ZH_HK" dataDxfId="43"/>
-    <tableColumn id="15" name="IN" dataDxfId="42"/>
-    <tableColumn id="16" name="TH" dataDxfId="41"/>
-    <tableColumn id="17" name="VI" dataDxfId="40"/>
-    <tableColumn id="18" name="MN" dataDxfId="39"/>
-    <tableColumn id="3" name="AR" dataDxfId="38"/>
-    <tableColumn id="19" name="FA" dataDxfId="37" dataCellStyle="표준 2"/>
-    <tableColumn id="20" name="HE" dataDxfId="36" dataCellStyle="표준 2"/>
-    <tableColumn id="4" name="CFR" dataDxfId="35" dataCellStyle="표준 2"/>
-    <tableColumn id="5" name="BPT" dataDxfId="34" dataCellStyle="표준 2"/>
-    <tableColumn id="7" name="MES" dataDxfId="33" dataCellStyle="표준 2"/>
-    <tableColumn id="8" name="AES" dataDxfId="32" dataCellStyle="표준 2"/>
-    <tableColumn id="9" name="DA" dataDxfId="31" dataCellStyle="표준 2"/>
-    <tableColumn id="10" name="NL" dataDxfId="30" dataCellStyle="표준 2"/>
-    <tableColumn id="21" name="FI" dataDxfId="29" dataCellStyle="표준 2"/>
-    <tableColumn id="22" name="FR" dataDxfId="28" dataCellStyle="표준 2"/>
-    <tableColumn id="23" name="DE" dataDxfId="27" dataCellStyle="표준 2"/>
-    <tableColumn id="24" name="EL" dataDxfId="26" dataCellStyle="표준 2"/>
-    <tableColumn id="25" name="IS" dataDxfId="25" dataCellStyle="표준 2"/>
-    <tableColumn id="26" name="IT" dataDxfId="24" dataCellStyle="표준 2"/>
-    <tableColumn id="27" name="MT" dataDxfId="23" dataCellStyle="표준 2"/>
-    <tableColumn id="28" name="NO" dataDxfId="22" dataCellStyle="표준 2"/>
-    <tableColumn id="29" name="PT" dataDxfId="21" dataCellStyle="표준 2"/>
-    <tableColumn id="30" name="ES" dataDxfId="20" dataCellStyle="표준 2"/>
-    <tableColumn id="31" name="SV" dataDxfId="19" dataCellStyle="표준 2"/>
-    <tableColumn id="32" name="TR" dataDxfId="18" dataCellStyle="표준 2"/>
-    <tableColumn id="33" name="SQ" dataDxfId="17" dataCellStyle="표준 2"/>
-    <tableColumn id="34" name="BG" dataDxfId="16" dataCellStyle="표준 2"/>
-    <tableColumn id="35" name="HR" dataDxfId="15" dataCellStyle="표준 2"/>
-    <tableColumn id="36" name="CS" dataDxfId="14" dataCellStyle="표준 2"/>
-    <tableColumn id="37" name="ET" dataDxfId="13" dataCellStyle="표준 2"/>
-    <tableColumn id="38" name="HU" dataDxfId="12" dataCellStyle="표준 2"/>
-    <tableColumn id="39" name="KK" dataDxfId="11" dataCellStyle="표준 2"/>
-    <tableColumn id="40" name="LV" dataDxfId="10" dataCellStyle="표준 2"/>
-    <tableColumn id="41" name="LT" dataDxfId="9" dataCellStyle="표준 2"/>
-    <tableColumn id="42" name="MK" dataDxfId="8" dataCellStyle="표준 2"/>
-    <tableColumn id="43" name="PL" dataDxfId="7" dataCellStyle="표준 2"/>
-    <tableColumn id="44" name="RO" dataDxfId="6" dataCellStyle="표준 2"/>
-    <tableColumn id="45" name="RU" dataDxfId="5" dataCellStyle="표준 2"/>
-    <tableColumn id="46" name="SR" dataDxfId="4" dataCellStyle="표준 2"/>
-    <tableColumn id="47" name="SK" dataDxfId="3" dataCellStyle="표준 2"/>
-    <tableColumn id="48" name="SL" dataDxfId="2" dataCellStyle="표준 2"/>
-    <tableColumn id="49" name="UK" dataDxfId="1" dataCellStyle="표준 2"/>
-    <tableColumn id="50" name="UZ" dataDxfId="0" dataCellStyle="표준 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Key" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="EN" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="KO" dataDxfId="77"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ZH_CN" dataDxfId="76"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="ZH_TW" dataDxfId="75"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="ZH_HK" dataDxfId="74"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="IN" dataDxfId="73"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="TH" dataDxfId="72"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="VI" dataDxfId="71"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="MN" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="AR" dataDxfId="69"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="FA" dataDxfId="68" dataCellStyle="표준 2"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="HE" dataDxfId="67" dataCellStyle="표준 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CFR" dataDxfId="66" dataCellStyle="표준 2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BPT" dataDxfId="65" dataCellStyle="표준 2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MES" dataDxfId="64" dataCellStyle="표준 2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="AES" dataDxfId="63" dataCellStyle="표준 2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DA" dataDxfId="62" dataCellStyle="표준 2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="NL" dataDxfId="61" dataCellStyle="표준 2"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="FI" dataDxfId="60" dataCellStyle="표준 2"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="FR" dataDxfId="59" dataCellStyle="표준 2"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="DE" dataDxfId="58" dataCellStyle="표준 2"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="EL" dataDxfId="57" dataCellStyle="표준 2"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="IS" dataDxfId="56" dataCellStyle="표준 2"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="IT" dataDxfId="55" dataCellStyle="표준 2"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="MT" dataDxfId="54" dataCellStyle="표준 2"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="NO" dataDxfId="53" dataCellStyle="표준 2"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="PT" dataDxfId="52" dataCellStyle="표준 2"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="ES" dataDxfId="51" dataCellStyle="표준 2"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="SV" dataDxfId="50" dataCellStyle="표준 2"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="TR" dataDxfId="49" dataCellStyle="표준 2"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="SQ" dataDxfId="48" dataCellStyle="표준 2"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="BG" dataDxfId="47" dataCellStyle="표준 2"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="HR" dataDxfId="46" dataCellStyle="표준 2"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="CS" dataDxfId="45" dataCellStyle="표준 2"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="ET" dataDxfId="44" dataCellStyle="표준 2"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="HU" dataDxfId="43" dataCellStyle="표준 2"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="KK" dataDxfId="42" dataCellStyle="표준 2"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="LV" dataDxfId="41" dataCellStyle="표준 2"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="LT" dataDxfId="40" dataCellStyle="표준 2"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="MK" dataDxfId="39" dataCellStyle="표준 2"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="PL" dataDxfId="38" dataCellStyle="표준 2"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="RO" dataDxfId="37" dataCellStyle="표준 2"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="RU" dataDxfId="36" dataCellStyle="표준 2"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="SR" dataDxfId="35" dataCellStyle="표준 2"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="SK" dataDxfId="34" dataCellStyle="표준 2"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="SL" dataDxfId="33" dataCellStyle="표준 2"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="UK" dataDxfId="32" dataCellStyle="표준 2"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="UZ" dataDxfId="31" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table13367" displayName="Table13367" ref="C3:P13" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="C3:P13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13367" displayName="Table13367" ref="C3:P13" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="C3:P13" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Key" dataDxfId="79"/>
-    <tableColumn id="14" name="Link" dataDxfId="78"/>
-    <tableColumn id="3" name="KO" dataDxfId="77"/>
-    <tableColumn id="2" name="EN" dataDxfId="76"/>
-    <tableColumn id="5" name="FR" dataDxfId="75"/>
-    <tableColumn id="6" name="FR(AM)" dataDxfId="74"/>
-    <tableColumn id="7" name="DE" dataDxfId="73"/>
-    <tableColumn id="8" name="IT" dataDxfId="72"/>
-    <tableColumn id="9" name="PL" dataDxfId="71"/>
-    <tableColumn id="10" name="ES" dataDxfId="70"/>
-    <tableColumn id="11" name="ES(AM)" dataDxfId="69"/>
-    <tableColumn id="12" name="TH" dataDxfId="68"/>
-    <tableColumn id="13" name="VI" dataDxfId="67"/>
-    <tableColumn id="4" name="TC" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Key" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Link" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="KO" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="EN" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="FR" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="FR(AM)" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="DE" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="IT" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="PL" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ES" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="ES(AM)" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="TH" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="VI" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="TC" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table133673" displayName="Table133673" ref="C3:O5" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
-  <autoFilter ref="C3:O5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table133673" displayName="Table133673" ref="C3:O5" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="C3:O5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Key" dataDxfId="63"/>
-    <tableColumn id="3" name="KO" dataDxfId="62"/>
-    <tableColumn id="2" name="EN" dataDxfId="61"/>
-    <tableColumn id="5" name="FR" dataDxfId="60"/>
-    <tableColumn id="6" name="FR(AM)" dataDxfId="59"/>
-    <tableColumn id="7" name="DE" dataDxfId="58"/>
-    <tableColumn id="8" name="IT" dataDxfId="57"/>
-    <tableColumn id="9" name="PL" dataDxfId="56"/>
-    <tableColumn id="10" name="ES" dataDxfId="55"/>
-    <tableColumn id="11" name="ES(AM)" dataDxfId="54"/>
-    <tableColumn id="12" name="TH" dataDxfId="53"/>
-    <tableColumn id="13" name="VI" dataDxfId="52"/>
-    <tableColumn id="4" name="TC" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Key" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="KO" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="EN" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="FR" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="FR(AM)" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="DE" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="IT" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="PL" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="ES" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="ES(AM)" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="TH" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="VI" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="TC" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5745,12 +5714,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AX23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="D25" sqref="D25"/>
+      <selection pane="topRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5916,28 +5885,28 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="25" t="s">
         <v>657</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="25" t="s">
         <v>656</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="25" t="s">
         <v>655</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="25" t="s">
         <v>653</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="25" t="s">
         <v>652</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="25" t="s">
         <v>651</v>
       </c>
       <c r="L4" s="8" t="s">
@@ -6065,28 +6034,28 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="1" t="s">
         <v>604</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -6214,28 +6183,28 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="1" t="s">
         <v>561</v>
       </c>
       <c r="L6" s="9" t="s">
@@ -6283,7 +6252,7 @@
       <c r="Z6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AA6" s="24" t="s">
+      <c r="AA6" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AB6" s="9" t="s">
@@ -6363,28 +6332,28 @@
       <c r="C7" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="30" t="s">
+      <c r="F7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="1" t="s">
         <v>206</v>
       </c>
       <c r="L7" s="9" t="s">
@@ -6396,112 +6365,112 @@
       <c r="N7" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="P7" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="Q7" s="24" t="s">
         <v>520</v>
       </c>
-      <c r="R7" s="27" t="s">
+      <c r="R7" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="S7" s="27" t="s">
+      <c r="S7" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="T7" s="27" t="s">
+      <c r="T7" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="U7" s="27" t="s">
+      <c r="U7" s="24" t="s">
         <v>517</v>
       </c>
-      <c r="V7" s="27" t="s">
+      <c r="V7" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="W7" s="27" t="s">
+      <c r="W7" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="X7" s="27" t="s">
+      <c r="X7" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="Y7" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z7" s="27" t="s">
+      <c r="Y7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z7" s="24" t="s">
         <v>513</v>
       </c>
-      <c r="AA7" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB7" s="27" t="s">
+      <c r="AA7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB7" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="AC7" s="27" t="s">
+      <c r="AC7" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="AD7" s="27" t="s">
+      <c r="AD7" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="AE7" s="27" t="s">
+      <c r="AE7" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="AF7" s="27" t="s">
+      <c r="AF7" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="AG7" s="27" t="s">
+      <c r="AG7" s="24" t="s">
         <v>507</v>
       </c>
-      <c r="AH7" s="27" t="s">
+      <c r="AH7" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="AI7" s="27" t="s">
+      <c r="AI7" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="AJ7" s="27" t="s">
+      <c r="AJ7" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="AK7" s="27" t="s">
+      <c r="AK7" s="24" t="s">
         <v>503</v>
       </c>
-      <c r="AL7" s="27" t="s">
+      <c r="AL7" s="24" t="s">
         <v>502</v>
       </c>
-      <c r="AM7" s="27" t="s">
+      <c r="AM7" s="24" t="s">
         <v>501</v>
       </c>
-      <c r="AN7" s="27" t="s">
+      <c r="AN7" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="AO7" s="27" t="s">
+      <c r="AO7" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="AP7" s="27" t="s">
+      <c r="AP7" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="AQ7" s="27" t="s">
+      <c r="AQ7" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="AR7" s="27" t="s">
+      <c r="AR7" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="AS7" s="27" t="s">
+      <c r="AS7" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="AT7" s="27" t="s">
+      <c r="AT7" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="AU7" s="27" t="s">
+      <c r="AU7" s="24" t="s">
         <v>493</v>
       </c>
-      <c r="AV7" s="27" t="s">
+      <c r="AV7" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="AW7" s="27" t="s">
+      <c r="AW7" s="24" t="s">
         <v>491</v>
       </c>
-      <c r="AX7" s="27" t="s">
+      <c r="AX7" s="24" t="s">
         <v>490</v>
       </c>
     </row>
@@ -6512,37 +6481,37 @@
       <c r="C8" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="1" t="s">
         <v>483</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="N8" s="24" t="s">
+      <c r="M8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>206</v>
       </c>
       <c r="O8" s="9" t="s">
@@ -6572,7 +6541,7 @@
       <c r="W8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="X8" s="24" t="s">
+      <c r="X8" s="1" t="s">
         <v>206</v>
       </c>
       <c r="Y8" s="9" t="s">
@@ -6581,13 +6550,13 @@
       <c r="Z8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AA8" s="24" t="s">
+      <c r="AA8" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AB8" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="AC8" s="24" t="s">
+      <c r="AC8" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AD8" s="9" t="s">
@@ -6596,22 +6565,22 @@
       <c r="AE8" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="AF8" s="24" t="s">
+      <c r="AF8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AG8" s="24" t="s">
+      <c r="AG8" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="AI8" s="24" t="s">
+      <c r="AI8" s="1" t="s">
         <v>228</v>
       </c>
       <c r="AJ8" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="AK8" s="24" t="s">
+      <c r="AK8" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AL8" s="9" t="s">
@@ -6620,10 +6589,10 @@
       <c r="AM8" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="AN8" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO8" s="24" t="s">
+      <c r="AN8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO8" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AP8" s="9" t="s">
@@ -6661,37 +6630,37 @@
       <c r="C9" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="F9" s="24" t="s">
+      <c r="E9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I9" s="29" t="s">
+      <c r="G9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="1" t="s">
         <v>206</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="N9" s="24" t="s">
+      <c r="M9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>206</v>
       </c>
       <c r="O9" s="9" t="s">
@@ -6721,7 +6690,7 @@
       <c r="W9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="X9" s="24" t="s">
+      <c r="X9" s="1" t="s">
         <v>206</v>
       </c>
       <c r="Y9" s="9" t="s">
@@ -6730,13 +6699,13 @@
       <c r="Z9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AA9" s="24" t="s">
+      <c r="AA9" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AB9" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="AC9" s="24" t="s">
+      <c r="AC9" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AD9" s="9" t="s">
@@ -6745,34 +6714,34 @@
       <c r="AE9" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="AF9" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG9" s="24" t="s">
+      <c r="AF9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG9" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AH9" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="AI9" s="24" t="s">
+      <c r="AI9" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AJ9" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="AK9" s="24" t="s">
+      <c r="AK9" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AL9" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="AM9" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN9" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO9" s="24" t="s">
+      <c r="AM9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO9" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AP9" s="9" t="s">
@@ -6810,37 +6779,37 @@
       <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I10" s="29" t="s">
+      <c r="H10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="1" t="s">
         <v>206</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="N10" s="24" t="s">
+      <c r="M10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>206</v>
       </c>
       <c r="O10" s="9" t="s">
@@ -6870,7 +6839,7 @@
       <c r="W10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="X10" s="24" t="s">
+      <c r="X10" s="1" t="s">
         <v>206</v>
       </c>
       <c r="Y10" s="9" t="s">
@@ -6879,13 +6848,13 @@
       <c r="Z10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AA10" s="24" t="s">
+      <c r="AA10" s="1" t="s">
         <v>228</v>
       </c>
       <c r="AB10" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="AC10" s="24" t="s">
+      <c r="AC10" s="1" t="s">
         <v>228</v>
       </c>
       <c r="AD10" s="9" t="s">
@@ -6894,34 +6863,34 @@
       <c r="AE10" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="AF10" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG10" s="24" t="s">
+      <c r="AF10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG10" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AH10" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="AI10" s="24" t="s">
+      <c r="AI10" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AJ10" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="AK10" s="24" t="s">
+      <c r="AK10" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AL10" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="AM10" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN10" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO10" s="24" t="s">
+      <c r="AM10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO10" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AP10" s="9" t="s">
@@ -6959,37 +6928,37 @@
       <c r="C11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I11" s="29" t="s">
+      <c r="H11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="1" t="s">
         <v>206</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="N11" s="24" t="s">
+      <c r="M11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>210</v>
       </c>
       <c r="O11" s="9" t="s">
@@ -7019,7 +6988,7 @@
       <c r="W11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="X11" s="24" t="s">
+      <c r="X11" s="1" t="s">
         <v>206</v>
       </c>
       <c r="Y11" s="9" t="s">
@@ -7028,13 +6997,13 @@
       <c r="Z11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AA11" s="24" t="s">
+      <c r="AA11" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AB11" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="AC11" s="24" t="s">
+      <c r="AC11" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AD11" s="9" t="s">
@@ -7043,34 +7012,34 @@
       <c r="AE11" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="AF11" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG11" s="24" t="s">
+      <c r="AF11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG11" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AH11" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="AI11" s="24" t="s">
+      <c r="AI11" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AJ11" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="AK11" s="24" t="s">
+      <c r="AK11" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AL11" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="AM11" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN11" s="24" t="s">
+      <c r="AM11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN11" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AO11" s="24" t="s">
+      <c r="AO11" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AP11" s="9" t="s">
@@ -7108,28 +7077,28 @@
       <c r="C12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12" s="24" t="s">
+      <c r="E12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="1" t="s">
         <v>206</v>
       </c>
       <c r="L12" s="9" t="s">
@@ -7177,7 +7146,7 @@
       <c r="Z12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AA12" s="24" t="s">
+      <c r="AA12" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AB12" s="9" t="s">
@@ -7251,62 +7220,55 @@
       </c>
     </row>
     <row r="13" spans="2:50">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
       <c r="Q13" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="24" t="s">
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="27"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="27"/>
-      <c r="AR13" s="27"/>
-      <c r="AS13" s="27"/>
-      <c r="AT13" s="27"/>
-      <c r="AU13" s="27"/>
-      <c r="AV13" s="27"/>
-      <c r="AW13" s="27"/>
-      <c r="AX13" s="27"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="24"/>
+      <c r="AS13" s="24"/>
+      <c r="AT13" s="24"/>
+      <c r="AU13" s="24"/>
+      <c r="AV13" s="24"/>
+      <c r="AW13" s="24"/>
+      <c r="AX13" s="24"/>
     </row>
     <row r="14" spans="2:50">
       <c r="B14" s="18" t="s">
@@ -7315,37 +7277,37 @@
       <c r="C14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I14" s="26" t="s">
+      <c r="H14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="1" t="s">
         <v>206</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="N14" s="24" t="s">
+      <c r="M14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>206</v>
       </c>
       <c r="O14" s="9" t="s">
@@ -7375,7 +7337,7 @@
       <c r="W14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="X14" s="24" t="s">
+      <c r="X14" s="1" t="s">
         <v>206</v>
       </c>
       <c r="Y14" s="9" t="s">
@@ -7384,13 +7346,13 @@
       <c r="Z14" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AA14" s="24" t="s">
+      <c r="AA14" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AB14" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="AC14" s="24" t="s">
+      <c r="AC14" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AD14" s="9" t="s">
@@ -7399,34 +7361,34 @@
       <c r="AE14" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="AF14" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG14" s="24" t="s">
+      <c r="AF14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG14" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AH14" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="AI14" s="24" t="s">
+      <c r="AI14" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AJ14" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="AK14" s="24" t="s">
+      <c r="AK14" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AL14" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="AM14" s="24" t="s">
+      <c r="AM14" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AN14" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO14" s="24" t="s">
+      <c r="AN14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO14" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AP14" s="9" t="s">
@@ -7464,37 +7426,37 @@
       <c r="C15" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="F15" s="25" t="s">
+      <c r="E15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G15" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I15" s="26" t="s">
+      <c r="G15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="1" t="s">
         <v>206</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="N15" s="24" t="s">
+      <c r="M15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>210</v>
       </c>
       <c r="O15" s="9" t="s">
@@ -7524,7 +7486,7 @@
       <c r="W15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="X15" s="24" t="s">
+      <c r="X15" s="1" t="s">
         <v>206</v>
       </c>
       <c r="Y15" s="9" t="s">
@@ -7533,11 +7495,10 @@
       <c r="Z15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AA15" s="24"/>
       <c r="AB15" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="AC15" s="24" t="s">
+      <c r="AC15" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AD15" s="9" t="s">
@@ -7546,34 +7507,34 @@
       <c r="AE15" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="AF15" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG15" s="24" t="s">
+      <c r="AF15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG15" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AH15" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="AI15" s="24" t="s">
+      <c r="AI15" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AJ15" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="AK15" s="24" t="s">
+      <c r="AK15" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AL15" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="AM15" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN15" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO15" s="24" t="s">
+      <c r="AM15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO15" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AP15" s="9" t="s">
@@ -7611,37 +7572,37 @@
       <c r="C16" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="F16" s="25" t="s">
+      <c r="E16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="G16" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I16" s="26" t="s">
+      <c r="G16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="1" t="s">
         <v>206</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="M16" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="N16" s="24" t="s">
+      <c r="M16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>206</v>
       </c>
       <c r="O16" s="9" t="s">
@@ -7671,7 +7632,7 @@
       <c r="W16" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="X16" s="24" t="s">
+      <c r="X16" s="1" t="s">
         <v>206</v>
       </c>
       <c r="Y16" s="9" t="s">
@@ -7680,13 +7641,13 @@
       <c r="Z16" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AA16" s="24" t="s">
+      <c r="AA16" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AB16" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="AC16" s="24" t="s">
+      <c r="AC16" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AD16" s="9" t="s">
@@ -7695,34 +7656,34 @@
       <c r="AE16" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="AF16" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG16" s="24" t="s">
+      <c r="AF16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG16" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AH16" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AI16" s="24" t="s">
+      <c r="AI16" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AJ16" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="AK16" s="24" t="s">
+      <c r="AK16" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AL16" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="AM16" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN16" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO16" s="24" t="s">
+      <c r="AM16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO16" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AP16" s="9" t="s">
@@ -7760,37 +7721,37 @@
       <c r="C17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" s="25" t="s">
+      <c r="E17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I17" s="26" t="s">
+      <c r="G17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="K17" s="24" t="s">
+      <c r="K17" s="1" t="s">
         <v>206</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="M17" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="N17" s="24" t="s">
+      <c r="M17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>206</v>
       </c>
       <c r="O17" s="9" t="s">
@@ -7820,7 +7781,7 @@
       <c r="W17" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="X17" s="24" t="s">
+      <c r="X17" s="1" t="s">
         <v>206</v>
       </c>
       <c r="Y17" s="9" t="s">
@@ -7829,13 +7790,13 @@
       <c r="Z17" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AA17" s="24" t="s">
+      <c r="AA17" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AB17" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="AC17" s="24" t="s">
+      <c r="AC17" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AD17" s="9" t="s">
@@ -7844,34 +7805,34 @@
       <c r="AE17" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="AF17" s="24" t="s">
+      <c r="AF17" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AG17" s="24" t="s">
+      <c r="AG17" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AH17" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AI17" s="24" t="s">
+      <c r="AI17" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AJ17" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="AK17" s="24" t="s">
+      <c r="AK17" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AL17" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="AM17" s="24" t="s">
+      <c r="AM17" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AN17" s="24" t="s">
+      <c r="AN17" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AO17" s="24" t="s">
+      <c r="AO17" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AP17" s="9" t="s">
@@ -7909,37 +7870,37 @@
       <c r="C18" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G18" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I18" s="26" t="s">
+      <c r="G18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="K18" s="24" t="s">
+      <c r="K18" s="1" t="s">
         <v>210</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="N18" s="24" t="s">
+      <c r="M18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="O18" s="9" t="s">
@@ -7969,7 +7930,7 @@
       <c r="W18" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="X18" s="24" t="s">
+      <c r="X18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="Y18" s="9" t="s">
@@ -7978,13 +7939,13 @@
       <c r="Z18" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AA18" s="24" t="s">
+      <c r="AA18" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AB18" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="AC18" s="24" t="s">
+      <c r="AC18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AD18" s="9" t="s">
@@ -7993,34 +7954,34 @@
       <c r="AE18" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="AF18" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG18" s="24" t="s">
+      <c r="AF18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AH18" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AI18" s="24" t="s">
+      <c r="AI18" s="1" t="s">
         <v>228</v>
       </c>
       <c r="AJ18" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="AK18" s="24" t="s">
+      <c r="AK18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AL18" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="AM18" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN18" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO18" s="24" t="s">
+      <c r="AM18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO18" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AP18" s="9" t="s">
@@ -8058,37 +8019,37 @@
       <c r="C19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I19" s="26" t="s">
+      <c r="G19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="K19" s="1" t="s">
         <v>206</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="M19" s="24" t="s">
+      <c r="M19" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="N19" s="24" t="s">
+      <c r="N19" s="1" t="s">
         <v>206</v>
       </c>
       <c r="O19" s="9" t="s">
@@ -8118,7 +8079,7 @@
       <c r="W19" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="X19" s="24" t="s">
+      <c r="X19" s="1" t="s">
         <v>206</v>
       </c>
       <c r="Y19" s="9" t="s">
@@ -8127,13 +8088,13 @@
       <c r="Z19" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AA19" s="24" t="s">
+      <c r="AA19" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AB19" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="AC19" s="24" t="s">
+      <c r="AC19" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AD19" s="9" t="s">
@@ -8142,34 +8103,34 @@
       <c r="AE19" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="AF19" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG19" s="24" t="s">
+      <c r="AF19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG19" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AH19" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AI19" s="24" t="s">
+      <c r="AI19" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AJ19" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="AK19" s="24" t="s">
+      <c r="AK19" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AL19" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="AM19" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN19" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO19" s="24" t="s">
+      <c r="AM19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO19" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AP19" s="9" t="s">
@@ -8207,37 +8168,37 @@
       <c r="C20" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="F20" s="25" t="s">
+      <c r="E20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H20" s="24" t="s">
+      <c r="G20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="K20" s="24" t="s">
+      <c r="K20" s="1" t="s">
         <v>206</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M20" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="N20" s="24" t="s">
+      <c r="M20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>206</v>
       </c>
       <c r="O20" s="9" t="s">
@@ -8267,7 +8228,7 @@
       <c r="W20" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="X20" s="24" t="s">
+      <c r="X20" s="1" t="s">
         <v>206</v>
       </c>
       <c r="Y20" s="9" t="s">
@@ -8276,13 +8237,13 @@
       <c r="Z20" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AA20" s="24" t="s">
+      <c r="AA20" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AB20" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="AC20" s="24" t="s">
+      <c r="AC20" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AD20" s="9" t="s">
@@ -8291,34 +8252,34 @@
       <c r="AE20" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="AF20" s="24" t="s">
+      <c r="AF20" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AG20" s="24" t="s">
+      <c r="AG20" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AH20" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="AI20" s="24" t="s">
+      <c r="AI20" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AJ20" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="AK20" s="24" t="s">
+      <c r="AK20" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AL20" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="AM20" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN20" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO20" s="24" t="s">
+      <c r="AM20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO20" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AP20" s="9" t="s">
@@ -8356,34 +8317,34 @@
       <c r="C21" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G21" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I21" s="26" t="s">
+      <c r="G21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="1" t="s">
         <v>206</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="M21" s="24" t="s">
+      <c r="M21" s="1" t="s">
         <v>206</v>
       </c>
       <c r="N21" s="9" t="s">
@@ -8425,7 +8386,7 @@
       <c r="Z21" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="AA21" s="24" t="s">
+      <c r="AA21" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AB21" s="9" t="s">
@@ -8443,7 +8404,7 @@
       <c r="AF21" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="AG21" s="24" t="s">
+      <c r="AG21" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AH21" s="9" t="s">
@@ -8461,7 +8422,7 @@
       <c r="AL21" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="AM21" s="24" t="s">
+      <c r="AM21" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AN21" s="9" t="s">
@@ -8505,37 +8466,37 @@
       <c r="C22" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="F22" s="25" t="s">
+      <c r="E22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G22" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I22" s="26" t="s">
+      <c r="G22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="K22" s="1" t="s">
         <v>206</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="M22" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="N22" s="24" t="s">
+      <c r="M22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>206</v>
       </c>
       <c r="O22" s="9" t="s">
@@ -8565,7 +8526,7 @@
       <c r="W22" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="X22" s="24" t="s">
+      <c r="X22" s="1" t="s">
         <v>206</v>
       </c>
       <c r="Y22" s="9" t="s">
@@ -8574,13 +8535,13 @@
       <c r="Z22" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="AA22" s="24" t="s">
+      <c r="AA22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AB22" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="AC22" s="24" t="s">
+      <c r="AC22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AD22" s="9" t="s">
@@ -8589,34 +8550,34 @@
       <c r="AE22" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="AF22" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG22" s="24" t="s">
+      <c r="AF22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG22" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AH22" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="AI22" s="24" t="s">
+      <c r="AI22" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AJ22" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="AK22" s="24" t="s">
+      <c r="AK22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AL22" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="AM22" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN22" s="24" t="s">
+      <c r="AM22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN22" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AO22" s="24" t="s">
+      <c r="AO22" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AP22" s="9" t="s">
@@ -8651,16 +8612,9 @@
       <c r="B23" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8673,7 +8627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8815,7 +8769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9195,18 +9149,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D7" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D14" r:id="rId11"/>
-    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="D14" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
@@ -9217,7 +9171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
